--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.1.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.1.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702FE80C-2E31-4B2A-9F63-1B1E3C94BADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73522E88-0D4C-4513-9868-51823C60E1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="测试用例" sheetId="2" r:id="rId1"/>
-    <sheet name="数码变焦case自动化部分" sheetId="3" r:id="rId2"/>
-    <sheet name="大纲" sheetId="4" r:id="rId3"/>
-    <sheet name="分辨率对应表-NotAvailable" sheetId="5" r:id="rId4"/>
-    <sheet name="修改记录" sheetId="6" r:id="rId5"/>
+    <sheet name="测试用例" sheetId="1" r:id="rId1"/>
+    <sheet name="数码变焦case自动化部分" sheetId="2" r:id="rId2"/>
+    <sheet name="大纲" sheetId="3" r:id="rId3"/>
+    <sheet name="分辨率对应表-NotAvailable" sheetId="4" r:id="rId4"/>
+    <sheet name="修改记录" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">测试用例!$A$1:$I$45</definedName>
@@ -37,15 +37,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="664">
-  <si>
-    <t>CaseNumber</t>
-  </si>
-  <si>
-    <t>测试点</t>
-  </si>
-  <si>
-    <t>测试前提</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="663">
+  <si>
+    <t>测试项</t>
+  </si>
+  <si>
+    <t>测试子项</t>
+  </si>
+  <si>
+    <t>测试子项1</t>
+  </si>
+  <si>
+    <t>前提条件</t>
   </si>
   <si>
     <t>测试步骤</t>
@@ -54,65 +57,10 @@
     <t>优先级</t>
   </si>
   <si>
-    <t>期望结果</t>
+    <t>预期结果</t>
   </si>
   <si>
     <t>测试结果</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>0,MJPG 3840×2160P 30(P 16:9),40,-53</t>
-  </si>
-  <si>
-    <t>使用amcap\potplyer工具打开MJPG 4k分辨率预览，并处于放大40步长状态</t>
-  </si>
-  <si>
-    <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID缩小53步长；查看预览画面，移动画面</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>超出最大缩放步长，提示错误</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>0,MJPG 1920×1080P 30(P 16:9),-1</t>
-  </si>
-  <si>
-    <t>使用amcap\potplyer工具打开MJPG 1080P分辨率预览，并处于无变焦状态</t>
-  </si>
-  <si>
-    <t>1、设置编码格式为MJPG，分辨率为1920*1080；预览时使用HID缩放1步长；查看预览画面，移动画面</t>
-  </si>
-  <si>
-    <t>1,MJPG 1920×1080P 30(P 16:9),5</t>
-  </si>
-  <si>
-    <t>1、设置编码格式为MJPG，分辨率为1920*1080；预览时使用HID放大5步长；查看预览画面，移动画面</t>
-  </si>
-  <si>
-    <t>放大时画面无卡顿，预览画面无明显延时、锯齿白屏黑屏等异常；
-预览画面放大1.1倍</t>
-  </si>
-  <si>
-    <t>测试项</t>
-  </si>
-  <si>
-    <t>测试子项</t>
-  </si>
-  <si>
-    <t>测试子项1</t>
-  </si>
-  <si>
-    <t>前提条件</t>
-  </si>
-  <si>
-    <t>预期结果</t>
   </si>
   <si>
     <t>备注</t>
@@ -134,8 +82,14 @@
 2、进行变焦动作</t>
   </si>
   <si>
+    <t>P1</t>
+  </si>
+  <si>
     <t>变焦时画面无卡顿，预览画面无明显延时、锯齿白屏黑屏等异常；
 移动时无卡顿、花屏等异常现象</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>重新打开预览</t>
@@ -279,6 +233,21 @@
     <t>72°</t>
   </si>
   <si>
+    <t>CaseNumber</t>
+  </si>
+  <si>
+    <t>测试点</t>
+  </si>
+  <si>
+    <t>测试前提</t>
+  </si>
+  <si>
+    <t>期望结果</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>0,MJPG 3840×2160P 30(P 16:9),-1</t>
   </si>
   <si>
@@ -288,10 +257,17 @@
     <t>1、设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID缩放1步长；查看预览画面，移动画面，移动画面，移动画面</t>
   </si>
   <si>
+    <t>超出最大缩放步长，提示错误</t>
+  </si>
+  <si>
     <t>1,MJPG 3840×2160P 30(P 16:9),5</t>
   </si>
   <si>
     <t>1、设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID放大5步长；查看预览画面，移动画面，移动画面</t>
+  </si>
+  <si>
+    <t>放大时画面无卡顿，预览画面无明显延时、锯齿白屏黑屏等异常；
+预览画面放大1.1倍</t>
   </si>
   <si>
     <t>1,MJPG 3840×2160P 30(P 16:9),10</t>
@@ -488,6 +464,9 @@
     <t>2,MJPG 3840×2160P 30(P 16:9),40,-1</t>
   </si>
   <si>
+    <t>使用amcap\potplyer工具打开MJPG 4k分辨率预览，并处于放大40步长状态</t>
+  </si>
+  <si>
     <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID缩小1步长；查看预览画面，移动画面</t>
   </si>
   <si>
@@ -609,6 +588,27 @@
   <si>
     <t>放大时画面无卡顿，预览画面无明显延时、锯齿白屏黑屏等异常；
 预览画面变焦回原图</t>
+  </si>
+  <si>
+    <t>0,MJPG 3840×2160P 30(P 16:9),40,-53</t>
+  </si>
+  <si>
+    <t>设置编码格式为MJPG，分辨率为3840*2160；预览时使用HID缩小53步长；查看预览画面，移动画面</t>
+  </si>
+  <si>
+    <t>0,MJPG 1920×1080P 30(P 16:9),-1</t>
+  </si>
+  <si>
+    <t>使用amcap\potplyer工具打开MJPG 1080P分辨率预览，并处于无变焦状态</t>
+  </si>
+  <si>
+    <t>1、设置编码格式为MJPG，分辨率为1920*1080；预览时使用HID缩放1步长；查看预览画面，移动画面</t>
+  </si>
+  <si>
+    <t>1,MJPG 1920×1080P 30(P 16:9),5</t>
+  </si>
+  <si>
+    <t>1、设置编码格式为MJPG，分辨率为1920*1080；预览时使用HID放大5步长；查看预览画面，移动画面</t>
   </si>
   <si>
     <t>1,MJPG 1920×1080P 30(P 16:9),10</t>
@@ -2062,24 +2062,16 @@
   </si>
   <si>
     <t>V2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、将测试用例区分为自动化和手动测试
 2、自动化测试脚本已编写完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2022.03.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>陈广涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何浩玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2376,18 +2368,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2408,9 +2403,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2738,11 +2730,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2756,1084 +2748,1104 @@
     <col min="7" max="7" width="60.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="9" style="5" customWidth="1"/>
     <col min="9" max="9" width="21" style="5" customWidth="1"/>
-    <col min="10" max="28" width="9" style="5" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="5"/>
+    <col min="10" max="29" width="9" style="5" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="28" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="F5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="H5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="B7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="18" t="s">
+      <c r="C7" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="19" t="s">
+      <c r="C13" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="F13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="C19" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="E20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="E23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="2" t="s">
+      <c r="F23" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="H23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="D30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="F30" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="32"/>
+      <c r="B35" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="E36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="H36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="32" t="s">
+      <c r="B37" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="32"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="32"/>
+      <c r="B41" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
-      <c r="B41" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="H42" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
-        <v>72</v>
+      <c r="A44" s="35" t="s">
+        <v>57</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I45" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I45" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:I45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="35">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B25:B28"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A44:A45"/>
@@ -3849,26 +3861,6 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="A31:A36"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1">
@@ -3885,11 +3877,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3906,28 +3898,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3935,21 +3927,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -3957,21 +3951,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -3979,21 +3975,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4001,21 +3999,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>85</v>
-      </c>
       <c r="E5" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4023,21 +4023,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4045,21 +4047,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="21"/>
+        <v>84</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4067,21 +4071,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4089,21 +4095,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4111,21 +4119,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4133,21 +4143,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4155,21 +4167,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="21"/>
+        <v>100</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4177,21 +4191,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4199,21 +4215,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4221,21 +4239,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4243,21 +4263,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="21"/>
+        <v>112</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4265,21 +4287,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="21"/>
+        <v>115</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4287,21 +4311,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4309,21 +4335,23 @@
         <v>18</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4331,21 +4359,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="21"/>
+        <v>124</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4353,21 +4383,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="21"/>
+        <v>127</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4375,21 +4407,23 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="24"/>
+        <v>130</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4397,21 +4431,23 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="21"/>
+        <v>124</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4419,21 +4455,23 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4441,21 +4479,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4463,21 +4503,23 @@
         <v>25</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="21"/>
+        <v>115</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4485,21 +4527,23 @@
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="21"/>
+        <v>112</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4507,21 +4551,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G28" s="21"/>
+        <v>144</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4529,21 +4575,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4551,21 +4599,23 @@
         <v>29</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4573,21 +4623,23 @@
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G31" s="21"/>
+        <v>151</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4595,21 +4647,23 @@
         <v>31</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4617,21 +4671,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4639,21 +4695,23 @@
         <v>33</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4661,21 +4719,23 @@
         <v>34</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4683,21 +4743,23 @@
         <v>35</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="21"/>
+        <v>84</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4705,21 +4767,23 @@
         <v>36</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4727,21 +4791,23 @@
         <v>37</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4749,21 +4815,23 @@
         <v>38</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4771,21 +4839,23 @@
         <v>39</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4793,21 +4863,23 @@
         <v>40</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G41" s="21"/>
+        <v>172</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -4815,21 +4887,23 @@
         <v>41</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H42" s="24"/>
     </row>
     <row r="43" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4837,21 +4911,23 @@
         <v>42</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H43" s="24"/>
     </row>
     <row r="44" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4859,21 +4935,23 @@
         <v>43</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4884,18 +4962,20 @@
         <v>180</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D45" s="21" t="s">
         <v>181</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G45" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4906,18 +4986,20 @@
         <v>182</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>183</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G46" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4928,18 +5010,20 @@
         <v>184</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D47" s="21" t="s">
         <v>185</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G47" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4950,18 +5034,20 @@
         <v>186</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D48" s="21" t="s">
         <v>187</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G48" s="21"/>
+        <v>84</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4972,18 +5058,20 @@
         <v>188</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D49" s="21" t="s">
         <v>189</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4994,18 +5082,20 @@
         <v>190</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D50" s="21" t="s">
         <v>191</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5016,18 +5106,20 @@
         <v>192</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D51" s="21" t="s">
         <v>193</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G51" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5038,18 +5130,20 @@
         <v>194</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D52" s="21" t="s">
         <v>195</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5060,18 +5154,20 @@
         <v>196</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D53" s="21" t="s">
         <v>197</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G53" s="21"/>
+        <v>100</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5082,18 +5178,20 @@
         <v>198</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>199</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G54" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5104,18 +5202,20 @@
         <v>200</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>201</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G55" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H55" s="21"/>
     </row>
     <row r="56" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5126,18 +5226,20 @@
         <v>202</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D56" s="21" t="s">
         <v>203</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G56" s="21"/>
+        <v>144</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H56" s="21"/>
     </row>
     <row r="57" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5148,18 +5250,20 @@
         <v>204</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D57" s="21" t="s">
         <v>205</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G57" s="21"/>
+        <v>112</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H57" s="21"/>
     </row>
     <row r="58" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5170,18 +5274,20 @@
         <v>206</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D58" s="21" t="s">
         <v>207</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G58" s="21"/>
+        <v>115</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H58" s="21"/>
     </row>
     <row r="59" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5192,18 +5298,20 @@
         <v>208</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D59" s="21" t="s">
         <v>209</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G59" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5214,18 +5322,20 @@
         <v>210</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>211</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G60" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H60" s="21"/>
     </row>
     <row r="61" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5236,18 +5346,20 @@
         <v>212</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D61" s="21" t="s">
         <v>213</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G61" s="21"/>
+        <v>124</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H61" s="21"/>
     </row>
     <row r="62" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5258,18 +5370,20 @@
         <v>214</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D62" s="21" t="s">
         <v>215</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G62" s="21"/>
+        <v>127</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H62" s="21"/>
     </row>
     <row r="63" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5280,18 +5394,20 @@
         <v>216</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>217</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G63" s="24"/>
+        <v>130</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H63" s="24"/>
     </row>
     <row r="64" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5308,12 +5424,14 @@
         <v>220</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G64" s="21"/>
+        <v>124</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H64" s="21"/>
     </row>
     <row r="65" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5330,12 +5448,14 @@
         <v>222</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G65" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H65" s="21"/>
     </row>
     <row r="66" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5352,12 +5472,14 @@
         <v>224</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G66" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H66" s="21"/>
     </row>
     <row r="67" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5374,12 +5496,14 @@
         <v>226</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G67" s="21"/>
+        <v>115</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H67" s="21"/>
     </row>
     <row r="68" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5396,12 +5520,14 @@
         <v>228</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G68" s="21"/>
+        <v>112</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H68" s="21"/>
     </row>
     <row r="69" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5418,12 +5544,14 @@
         <v>230</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G69" s="21"/>
+        <v>144</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H69" s="21"/>
     </row>
     <row r="70" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5440,12 +5568,14 @@
         <v>232</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G70" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H70" s="21"/>
     </row>
     <row r="71" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5462,12 +5592,14 @@
         <v>234</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G71" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H71" s="21"/>
     </row>
     <row r="72" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5484,12 +5616,14 @@
         <v>236</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G72" s="21"/>
+        <v>151</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H72" s="21"/>
     </row>
     <row r="73" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5506,12 +5640,14 @@
         <v>238</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G73" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H73" s="21"/>
     </row>
     <row r="74" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5528,12 +5664,14 @@
         <v>240</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G74" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H74" s="21"/>
     </row>
     <row r="75" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5550,12 +5688,14 @@
         <v>242</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G75" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H75" s="21"/>
     </row>
     <row r="76" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5572,12 +5712,14 @@
         <v>244</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G76" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H76" s="21"/>
     </row>
     <row r="77" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5594,12 +5736,14 @@
         <v>246</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" s="21"/>
+        <v>84</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H77" s="21"/>
     </row>
     <row r="78" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5616,12 +5760,14 @@
         <v>248</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G78" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H78" s="21"/>
     </row>
     <row r="79" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5638,12 +5784,14 @@
         <v>250</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G79" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H79" s="21"/>
     </row>
     <row r="80" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5660,12 +5808,14 @@
         <v>252</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G80" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H80" s="21"/>
     </row>
     <row r="81" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5682,12 +5832,14 @@
         <v>254</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H81" s="21"/>
     </row>
     <row r="82" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5704,12 +5856,14 @@
         <v>256</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G82" s="21"/>
+        <v>172</v>
+      </c>
+      <c r="G82" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H82" s="21"/>
     </row>
     <row r="83" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5726,12 +5880,14 @@
         <v>258</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H83" s="24"/>
     </row>
     <row r="84" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5748,12 +5904,14 @@
         <v>261</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H84" s="24"/>
     </row>
     <row r="85" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5770,12 +5928,14 @@
         <v>263</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="G85" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H85" s="25"/>
     </row>
     <row r="86" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5792,12 +5952,14 @@
         <v>265</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G86" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H86" s="25"/>
     </row>
     <row r="87" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5814,12 +5976,14 @@
         <v>267</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G87" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H87" s="25"/>
     </row>
     <row r="88" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5836,12 +6000,14 @@
         <v>269</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G88" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H88" s="25"/>
     </row>
     <row r="89" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5858,12 +6024,14 @@
         <v>271</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G89" s="21"/>
+        <v>84</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H89" s="25"/>
     </row>
     <row r="90" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5880,12 +6048,14 @@
         <v>273</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G90" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H90" s="25"/>
     </row>
     <row r="91" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5902,12 +6072,14 @@
         <v>275</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G91" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H91" s="25"/>
     </row>
     <row r="92" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5924,12 +6096,14 @@
         <v>277</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G92" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="G92" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H92" s="25"/>
     </row>
     <row r="93" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5946,12 +6120,14 @@
         <v>279</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G93" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="G93" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H93" s="25"/>
     </row>
     <row r="94" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5968,12 +6144,14 @@
         <v>281</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G94" s="21"/>
+        <v>100</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H94" s="25"/>
     </row>
     <row r="95" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5990,12 +6168,14 @@
         <v>283</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G95" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H95" s="25"/>
     </row>
     <row r="96" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6012,12 +6192,14 @@
         <v>285</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G96" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H96" s="25"/>
     </row>
     <row r="97" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6034,12 +6216,14 @@
         <v>287</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G97" s="21"/>
+        <v>144</v>
+      </c>
+      <c r="G97" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H97" s="25"/>
     </row>
     <row r="98" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6056,12 +6240,14 @@
         <v>289</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G98" s="21"/>
+        <v>112</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H98" s="25"/>
     </row>
     <row r="99" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6078,12 +6264,14 @@
         <v>291</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G99" s="21"/>
+        <v>115</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H99" s="25"/>
     </row>
     <row r="100" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6100,12 +6288,14 @@
         <v>293</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G100" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H100" s="25"/>
     </row>
     <row r="101" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6122,12 +6312,14 @@
         <v>295</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G101" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H101" s="25"/>
     </row>
     <row r="102" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6144,12 +6336,14 @@
         <v>297</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G102" s="21"/>
+        <v>124</v>
+      </c>
+      <c r="G102" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H102" s="25"/>
     </row>
     <row r="103" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6166,12 +6360,14 @@
         <v>299</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G103" s="21"/>
+        <v>127</v>
+      </c>
+      <c r="G103" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H103" s="25"/>
     </row>
     <row r="104" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6188,12 +6384,14 @@
         <v>301</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G104" s="24"/>
+        <v>130</v>
+      </c>
+      <c r="G104" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H104" s="24"/>
     </row>
     <row r="105" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6210,12 +6408,14 @@
         <v>304</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G105" s="21"/>
+        <v>124</v>
+      </c>
+      <c r="G105" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H105" s="25"/>
     </row>
     <row r="106" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6232,12 +6432,14 @@
         <v>306</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G106" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="G106" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H106" s="25"/>
     </row>
     <row r="107" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6254,12 +6456,14 @@
         <v>308</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G107" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="G107" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H107" s="25"/>
     </row>
     <row r="108" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6276,12 +6480,14 @@
         <v>310</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G108" s="21"/>
+        <v>115</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H108" s="25"/>
     </row>
     <row r="109" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6298,12 +6504,14 @@
         <v>312</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G109" s="21"/>
+        <v>112</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H109" s="25"/>
     </row>
     <row r="110" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6320,12 +6528,14 @@
         <v>314</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G110" s="21"/>
+        <v>144</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H110" s="25"/>
     </row>
     <row r="111" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6342,12 +6552,14 @@
         <v>316</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G111" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="G111" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6364,12 +6576,14 @@
         <v>318</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G112" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="G112" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H112" s="25"/>
     </row>
     <row r="113" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6386,12 +6600,14 @@
         <v>320</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G113" s="21"/>
+        <v>151</v>
+      </c>
+      <c r="G113" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H113" s="25"/>
     </row>
     <row r="114" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6408,12 +6624,14 @@
         <v>322</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G114" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="G114" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H114" s="25"/>
     </row>
     <row r="115" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6430,12 +6648,14 @@
         <v>324</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G115" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="G115" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H115" s="25"/>
     </row>
     <row r="116" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6452,12 +6672,14 @@
         <v>326</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G116" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="G116" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H116" s="25"/>
     </row>
     <row r="117" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6474,12 +6696,14 @@
         <v>328</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F117" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G117" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="G117" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H117" s="25"/>
     </row>
     <row r="118" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6496,12 +6720,14 @@
         <v>330</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F118" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G118" s="21"/>
+        <v>84</v>
+      </c>
+      <c r="G118" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H118" s="25"/>
     </row>
     <row r="119" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6518,12 +6744,14 @@
         <v>332</v>
       </c>
       <c r="E119" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F119" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G119" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="G119" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6540,12 +6768,14 @@
         <v>334</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F120" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G120" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="G120" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6562,12 +6792,14 @@
         <v>336</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G121" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="G121" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6584,12 +6816,14 @@
         <v>338</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F122" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="G122" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H122" s="25"/>
     </row>
     <row r="123" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6606,12 +6840,14 @@
         <v>340</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G123" s="21"/>
+        <v>172</v>
+      </c>
+      <c r="G123" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H123" s="25"/>
     </row>
     <row r="124" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6628,12 +6864,14 @@
         <v>342</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="G124" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H124" s="24"/>
     </row>
     <row r="125" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6650,12 +6888,14 @@
         <v>345</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="G125" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H125" s="24"/>
     </row>
     <row r="126" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6672,12 +6912,14 @@
         <v>347</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="G126" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H126" s="25"/>
     </row>
     <row r="127" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6694,12 +6936,14 @@
         <v>349</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G127" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="G127" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H127" s="25"/>
     </row>
     <row r="128" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6716,12 +6960,14 @@
         <v>351</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G128" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="G128" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H128" s="25"/>
     </row>
     <row r="129" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6738,12 +6984,14 @@
         <v>353</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F129" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G129" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="G129" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H129" s="25"/>
     </row>
     <row r="130" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6760,12 +7008,14 @@
         <v>355</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F130" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G130" s="21"/>
+        <v>84</v>
+      </c>
+      <c r="G130" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H130" s="25"/>
     </row>
     <row r="131" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6782,12 +7032,14 @@
         <v>357</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F131" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G131" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="G131" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H131" s="25"/>
     </row>
     <row r="132" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6804,12 +7056,14 @@
         <v>359</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F132" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G132" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="G132" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H132" s="25"/>
     </row>
     <row r="133" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6826,12 +7080,14 @@
         <v>361</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F133" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G133" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="G133" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H133" s="25"/>
     </row>
     <row r="134" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6848,12 +7104,14 @@
         <v>363</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G134" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="G134" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H134" s="25"/>
     </row>
     <row r="135" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6870,12 +7128,14 @@
         <v>365</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G135" s="21"/>
+        <v>100</v>
+      </c>
+      <c r="G135" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H135" s="25"/>
     </row>
     <row r="136" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6892,12 +7152,14 @@
         <v>367</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G136" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="G136" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H136" s="25"/>
     </row>
     <row r="137" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6914,12 +7176,14 @@
         <v>369</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G137" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="G137" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H137" s="25"/>
     </row>
     <row r="138" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6936,12 +7200,14 @@
         <v>371</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G138" s="21"/>
+        <v>144</v>
+      </c>
+      <c r="G138" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H138" s="25"/>
     </row>
     <row r="139" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6958,12 +7224,14 @@
         <v>373</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F139" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G139" s="21"/>
+        <v>112</v>
+      </c>
+      <c r="G139" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H139" s="25"/>
     </row>
     <row r="140" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6980,12 +7248,14 @@
         <v>375</v>
       </c>
       <c r="E140" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F140" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G140" s="21"/>
+        <v>115</v>
+      </c>
+      <c r="G140" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H140" s="25"/>
     </row>
     <row r="141" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7002,12 +7272,14 @@
         <v>377</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F141" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G141" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="G141" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H141" s="25"/>
     </row>
     <row r="142" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7024,12 +7296,14 @@
         <v>379</v>
       </c>
       <c r="E142" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F142" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G142" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="G142" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7046,12 +7320,14 @@
         <v>381</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F143" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G143" s="21"/>
+        <v>124</v>
+      </c>
+      <c r="G143" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7068,12 +7344,14 @@
         <v>383</v>
       </c>
       <c r="E144" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F144" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G144" s="21"/>
+        <v>127</v>
+      </c>
+      <c r="G144" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7090,12 +7368,14 @@
         <v>385</v>
       </c>
       <c r="E145" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F145" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G145" s="24"/>
+        <v>130</v>
+      </c>
+      <c r="G145" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H145" s="24"/>
     </row>
     <row r="146" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7112,12 +7392,14 @@
         <v>388</v>
       </c>
       <c r="E146" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G146" s="21"/>
+        <v>124</v>
+      </c>
+      <c r="G146" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H146" s="25"/>
     </row>
     <row r="147" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7134,12 +7416,14 @@
         <v>390</v>
       </c>
       <c r="E147" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F147" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G147" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="G147" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H147" s="25"/>
     </row>
     <row r="148" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7156,12 +7440,14 @@
         <v>392</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F148" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G148" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="G148" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H148" s="25"/>
     </row>
     <row r="149" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7178,12 +7464,14 @@
         <v>394</v>
       </c>
       <c r="E149" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F149" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G149" s="21"/>
+        <v>115</v>
+      </c>
+      <c r="G149" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H149" s="25"/>
     </row>
     <row r="150" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7200,12 +7488,14 @@
         <v>396</v>
       </c>
       <c r="E150" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F150" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G150" s="21"/>
+        <v>112</v>
+      </c>
+      <c r="G150" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H150" s="25"/>
     </row>
     <row r="151" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7222,12 +7512,14 @@
         <v>398</v>
       </c>
       <c r="E151" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F151" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G151" s="21"/>
+        <v>144</v>
+      </c>
+      <c r="G151" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H151" s="25"/>
     </row>
     <row r="152" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7244,12 +7536,14 @@
         <v>400</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F152" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G152" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="G152" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H152" s="25"/>
     </row>
     <row r="153" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7266,12 +7560,14 @@
         <v>402</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F153" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G153" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="G153" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H153" s="25"/>
     </row>
     <row r="154" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7288,12 +7584,14 @@
         <v>404</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G154" s="21"/>
+        <v>151</v>
+      </c>
+      <c r="G154" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H154" s="25"/>
     </row>
     <row r="155" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7310,12 +7608,14 @@
         <v>406</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F155" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G155" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="G155" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H155" s="25"/>
     </row>
     <row r="156" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7332,12 +7632,14 @@
         <v>408</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F156" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G156" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="G156" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H156" s="25"/>
     </row>
     <row r="157" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7354,12 +7656,14 @@
         <v>410</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F157" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G157" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="G157" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H157" s="25"/>
     </row>
     <row r="158" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7376,12 +7680,14 @@
         <v>412</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G158" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="G158" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H158" s="25"/>
     </row>
     <row r="159" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7398,12 +7704,14 @@
         <v>414</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F159" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G159" s="21"/>
+        <v>84</v>
+      </c>
+      <c r="G159" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H159" s="25"/>
     </row>
     <row r="160" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7420,12 +7728,14 @@
         <v>416</v>
       </c>
       <c r="E160" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G160" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="G160" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H160" s="25"/>
     </row>
     <row r="161" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7442,12 +7752,14 @@
         <v>418</v>
       </c>
       <c r="E161" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F161" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G161" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="G161" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H161" s="25"/>
     </row>
     <row r="162" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7464,12 +7776,14 @@
         <v>420</v>
       </c>
       <c r="E162" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F162" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G162" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="G162" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H162" s="25"/>
     </row>
     <row r="163" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7486,12 +7800,14 @@
         <v>422</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="G163" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H163" s="25"/>
     </row>
     <row r="164" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7508,12 +7824,14 @@
         <v>424</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F164" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G164" s="21"/>
+        <v>172</v>
+      </c>
+      <c r="G164" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H164" s="25"/>
     </row>
     <row r="165" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7530,12 +7848,14 @@
         <v>426</v>
       </c>
       <c r="E165" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F165" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="G165" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H165" s="24"/>
     </row>
     <row r="166" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7552,12 +7872,14 @@
         <v>429</v>
       </c>
       <c r="E166" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F166" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="G166" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H166" s="24"/>
     </row>
     <row r="167" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7574,12 +7896,14 @@
         <v>431</v>
       </c>
       <c r="E167" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F167" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G167" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="G167" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H167" s="21"/>
     </row>
     <row r="168" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7596,12 +7920,14 @@
         <v>433</v>
       </c>
       <c r="E168" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F168" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G168" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="G168" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H168" s="21"/>
     </row>
     <row r="169" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7618,12 +7944,14 @@
         <v>435</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F169" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G169" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="G169" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H169" s="21"/>
     </row>
     <row r="170" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7640,12 +7968,14 @@
         <v>437</v>
       </c>
       <c r="E170" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F170" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G170" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="G170" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H170" s="21"/>
     </row>
     <row r="171" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7662,12 +7992,14 @@
         <v>439</v>
       </c>
       <c r="E171" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F171" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G171" s="21"/>
+        <v>84</v>
+      </c>
+      <c r="G171" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H171" s="21"/>
     </row>
     <row r="172" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7684,12 +8016,14 @@
         <v>441</v>
       </c>
       <c r="E172" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F172" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G172" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="G172" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H172" s="21"/>
     </row>
     <row r="173" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7706,12 +8040,14 @@
         <v>443</v>
       </c>
       <c r="E173" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F173" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G173" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="G173" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H173" s="21"/>
     </row>
     <row r="174" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7728,12 +8064,14 @@
         <v>445</v>
       </c>
       <c r="E174" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F174" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G174" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="G174" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H174" s="21"/>
     </row>
     <row r="175" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7750,12 +8088,14 @@
         <v>447</v>
       </c>
       <c r="E175" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F175" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G175" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="G175" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H175" s="21"/>
     </row>
     <row r="176" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7772,12 +8112,14 @@
         <v>449</v>
       </c>
       <c r="E176" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F176" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G176" s="21"/>
+        <v>100</v>
+      </c>
+      <c r="G176" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H176" s="21"/>
     </row>
     <row r="177" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7794,12 +8136,14 @@
         <v>451</v>
       </c>
       <c r="E177" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F177" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G177" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="G177" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H177" s="21"/>
     </row>
     <row r="178" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7816,12 +8160,14 @@
         <v>453</v>
       </c>
       <c r="E178" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F178" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G178" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="G178" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H178" s="21"/>
     </row>
     <row r="179" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7838,12 +8184,14 @@
         <v>455</v>
       </c>
       <c r="E179" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F179" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G179" s="21"/>
+        <v>144</v>
+      </c>
+      <c r="G179" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H179" s="21"/>
     </row>
     <row r="180" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7860,12 +8208,14 @@
         <v>457</v>
       </c>
       <c r="E180" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F180" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G180" s="21"/>
+        <v>112</v>
+      </c>
+      <c r="G180" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H180" s="21"/>
     </row>
     <row r="181" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7882,12 +8232,14 @@
         <v>459</v>
       </c>
       <c r="E181" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F181" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G181" s="21"/>
+        <v>115</v>
+      </c>
+      <c r="G181" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H181" s="21"/>
     </row>
     <row r="182" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7904,12 +8256,14 @@
         <v>461</v>
       </c>
       <c r="E182" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F182" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G182" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="G182" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H182" s="21"/>
     </row>
     <row r="183" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7926,12 +8280,14 @@
         <v>463</v>
       </c>
       <c r="E183" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F183" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G183" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="G183" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H183" s="21"/>
     </row>
     <row r="184" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7948,12 +8304,14 @@
         <v>465</v>
       </c>
       <c r="E184" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F184" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G184" s="21"/>
+        <v>124</v>
+      </c>
+      <c r="G184" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H184" s="21"/>
     </row>
     <row r="185" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7970,12 +8328,14 @@
         <v>467</v>
       </c>
       <c r="E185" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F185" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G185" s="21"/>
+        <v>127</v>
+      </c>
+      <c r="G185" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H185" s="21"/>
     </row>
     <row r="186" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7992,12 +8352,14 @@
         <v>469</v>
       </c>
       <c r="E186" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F186" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G186" s="24"/>
+        <v>130</v>
+      </c>
+      <c r="G186" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H186" s="24"/>
     </row>
     <row r="187" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8014,12 +8376,14 @@
         <v>472</v>
       </c>
       <c r="E187" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F187" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G187" s="21"/>
+        <v>124</v>
+      </c>
+      <c r="G187" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H187" s="21"/>
     </row>
     <row r="188" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8036,12 +8400,14 @@
         <v>474</v>
       </c>
       <c r="E188" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F188" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G188" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="G188" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H188" s="21"/>
     </row>
     <row r="189" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8058,12 +8424,14 @@
         <v>476</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F189" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G189" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="G189" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H189" s="21"/>
     </row>
     <row r="190" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8080,12 +8448,14 @@
         <v>478</v>
       </c>
       <c r="E190" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F190" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G190" s="21"/>
+        <v>115</v>
+      </c>
+      <c r="G190" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H190" s="21"/>
     </row>
     <row r="191" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8102,12 +8472,14 @@
         <v>480</v>
       </c>
       <c r="E191" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F191" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G191" s="21"/>
+        <v>112</v>
+      </c>
+      <c r="G191" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H191" s="21"/>
     </row>
     <row r="192" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8124,12 +8496,14 @@
         <v>482</v>
       </c>
       <c r="E192" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F192" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G192" s="21"/>
+        <v>144</v>
+      </c>
+      <c r="G192" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H192" s="21"/>
     </row>
     <row r="193" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8146,12 +8520,14 @@
         <v>484</v>
       </c>
       <c r="E193" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F193" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G193" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="G193" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H193" s="21"/>
     </row>
     <row r="194" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8168,12 +8544,14 @@
         <v>486</v>
       </c>
       <c r="E194" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F194" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G194" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="G194" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H194" s="21"/>
     </row>
     <row r="195" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8190,12 +8568,14 @@
         <v>488</v>
       </c>
       <c r="E195" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F195" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G195" s="21"/>
+        <v>151</v>
+      </c>
+      <c r="G195" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H195" s="21"/>
     </row>
     <row r="196" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8212,12 +8592,14 @@
         <v>490</v>
       </c>
       <c r="E196" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F196" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G196" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="G196" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H196" s="21"/>
     </row>
     <row r="197" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8234,12 +8616,14 @@
         <v>492</v>
       </c>
       <c r="E197" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F197" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G197" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="G197" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H197" s="21"/>
     </row>
     <row r="198" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8256,12 +8640,14 @@
         <v>494</v>
       </c>
       <c r="E198" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F198" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G198" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="G198" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H198" s="21"/>
     </row>
     <row r="199" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8278,12 +8664,14 @@
         <v>496</v>
       </c>
       <c r="E199" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F199" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G199" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="G199" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H199" s="21"/>
     </row>
     <row r="200" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8300,12 +8688,14 @@
         <v>498</v>
       </c>
       <c r="E200" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F200" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G200" s="21"/>
+        <v>84</v>
+      </c>
+      <c r="G200" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H200" s="21"/>
     </row>
     <row r="201" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8322,12 +8712,14 @@
         <v>500</v>
       </c>
       <c r="E201" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F201" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G201" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="G201" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H201" s="21"/>
     </row>
     <row r="202" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8344,12 +8736,14 @@
         <v>502</v>
       </c>
       <c r="E202" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F202" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G202" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="G202" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H202" s="21"/>
     </row>
     <row r="203" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8366,12 +8760,14 @@
         <v>504</v>
       </c>
       <c r="E203" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F203" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G203" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="G203" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H203" s="21"/>
     </row>
     <row r="204" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8388,12 +8784,14 @@
         <v>506</v>
       </c>
       <c r="E204" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F204" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G204" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="G204" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H204" s="21"/>
     </row>
     <row r="205" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8410,12 +8808,14 @@
         <v>508</v>
       </c>
       <c r="E205" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F205" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G205" s="21"/>
+        <v>172</v>
+      </c>
+      <c r="G205" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H205" s="21"/>
     </row>
     <row r="206" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8432,12 +8832,14 @@
         <v>510</v>
       </c>
       <c r="E206" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F206" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="G206" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H206" s="24"/>
     </row>
     <row r="207" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8454,12 +8856,14 @@
         <v>513</v>
       </c>
       <c r="E207" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F207" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G207" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="G207" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H207" s="24"/>
     </row>
     <row r="208" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8476,12 +8880,14 @@
         <v>515</v>
       </c>
       <c r="E208" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F208" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G208" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="G208" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H208" s="21"/>
     </row>
     <row r="209" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8498,12 +8904,14 @@
         <v>517</v>
       </c>
       <c r="E209" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F209" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G209" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="G209" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H209" s="21"/>
     </row>
     <row r="210" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8520,12 +8928,14 @@
         <v>519</v>
       </c>
       <c r="E210" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F210" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G210" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="G210" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H210" s="21"/>
     </row>
     <row r="211" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8542,12 +8952,14 @@
         <v>521</v>
       </c>
       <c r="E211" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F211" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G211" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="G211" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H211" s="21"/>
     </row>
     <row r="212" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8564,12 +8976,14 @@
         <v>523</v>
       </c>
       <c r="E212" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F212" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G212" s="21"/>
+        <v>84</v>
+      </c>
+      <c r="G212" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H212" s="21"/>
     </row>
     <row r="213" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8586,12 +9000,14 @@
         <v>525</v>
       </c>
       <c r="E213" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F213" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G213" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="G213" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H213" s="21"/>
     </row>
     <row r="214" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8608,12 +9024,14 @@
         <v>527</v>
       </c>
       <c r="E214" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F214" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G214" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="G214" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H214" s="21"/>
     </row>
     <row r="215" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8630,12 +9048,14 @@
         <v>529</v>
       </c>
       <c r="E215" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F215" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G215" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="G215" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H215" s="21"/>
     </row>
     <row r="216" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8652,12 +9072,14 @@
         <v>531</v>
       </c>
       <c r="E216" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F216" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G216" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="G216" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H216" s="21"/>
     </row>
     <row r="217" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8674,12 +9096,14 @@
         <v>533</v>
       </c>
       <c r="E217" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F217" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G217" s="21"/>
+        <v>100</v>
+      </c>
+      <c r="G217" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H217" s="21"/>
     </row>
     <row r="218" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8696,12 +9120,14 @@
         <v>535</v>
       </c>
       <c r="E218" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F218" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G218" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="G218" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H218" s="21"/>
     </row>
     <row r="219" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8718,12 +9144,14 @@
         <v>537</v>
       </c>
       <c r="E219" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F219" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G219" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="G219" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H219" s="21"/>
     </row>
     <row r="220" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8740,12 +9168,14 @@
         <v>539</v>
       </c>
       <c r="E220" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F220" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G220" s="21"/>
+        <v>144</v>
+      </c>
+      <c r="G220" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H220" s="21"/>
     </row>
     <row r="221" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8762,12 +9192,14 @@
         <v>541</v>
       </c>
       <c r="E221" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F221" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G221" s="21"/>
+        <v>112</v>
+      </c>
+      <c r="G221" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H221" s="21"/>
     </row>
     <row r="222" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8784,12 +9216,14 @@
         <v>543</v>
       </c>
       <c r="E222" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F222" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G222" s="21"/>
+        <v>115</v>
+      </c>
+      <c r="G222" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H222" s="21"/>
     </row>
     <row r="223" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8806,12 +9240,14 @@
         <v>545</v>
       </c>
       <c r="E223" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F223" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G223" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="G223" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H223" s="21"/>
     </row>
     <row r="224" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8828,12 +9264,14 @@
         <v>547</v>
       </c>
       <c r="E224" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F224" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G224" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="G224" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H224" s="21"/>
     </row>
     <row r="225" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8850,12 +9288,14 @@
         <v>549</v>
       </c>
       <c r="E225" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F225" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G225" s="21"/>
+        <v>124</v>
+      </c>
+      <c r="G225" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H225" s="21"/>
     </row>
     <row r="226" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8872,12 +9312,14 @@
         <v>551</v>
       </c>
       <c r="E226" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F226" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G226" s="21"/>
+        <v>127</v>
+      </c>
+      <c r="G226" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H226" s="21"/>
     </row>
     <row r="227" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8894,12 +9336,14 @@
         <v>553</v>
       </c>
       <c r="E227" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F227" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G227" s="24"/>
+        <v>130</v>
+      </c>
+      <c r="G227" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H227" s="24"/>
     </row>
     <row r="228" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8916,12 +9360,14 @@
         <v>556</v>
       </c>
       <c r="E228" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F228" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G228" s="21"/>
+        <v>124</v>
+      </c>
+      <c r="G228" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H228" s="21"/>
     </row>
     <row r="229" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8938,12 +9384,14 @@
         <v>558</v>
       </c>
       <c r="E229" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F229" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G229" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="G229" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H229" s="21"/>
     </row>
     <row r="230" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8960,12 +9408,14 @@
         <v>560</v>
       </c>
       <c r="E230" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F230" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G230" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="G230" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H230" s="21"/>
     </row>
     <row r="231" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -8982,12 +9432,14 @@
         <v>562</v>
       </c>
       <c r="E231" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F231" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G231" s="21"/>
+        <v>115</v>
+      </c>
+      <c r="G231" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H231" s="21"/>
     </row>
     <row r="232" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -9004,12 +9456,14 @@
         <v>564</v>
       </c>
       <c r="E232" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F232" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G232" s="21"/>
+        <v>112</v>
+      </c>
+      <c r="G232" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H232" s="21"/>
     </row>
     <row r="233" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -9026,12 +9480,14 @@
         <v>566</v>
       </c>
       <c r="E233" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F233" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G233" s="21"/>
+        <v>144</v>
+      </c>
+      <c r="G233" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H233" s="21"/>
     </row>
     <row r="234" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -9048,12 +9504,14 @@
         <v>568</v>
       </c>
       <c r="E234" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F234" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G234" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="G234" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H234" s="21"/>
     </row>
     <row r="235" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -9070,12 +9528,14 @@
         <v>570</v>
       </c>
       <c r="E235" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F235" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G235" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="G235" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H235" s="21"/>
     </row>
     <row r="236" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -9092,12 +9552,14 @@
         <v>572</v>
       </c>
       <c r="E236" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F236" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G236" s="21"/>
+        <v>151</v>
+      </c>
+      <c r="G236" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H236" s="21"/>
     </row>
     <row r="237" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -9114,12 +9576,14 @@
         <v>574</v>
       </c>
       <c r="E237" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F237" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G237" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="G237" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H237" s="21"/>
     </row>
     <row r="238" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -9136,12 +9600,14 @@
         <v>576</v>
       </c>
       <c r="E238" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F238" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G238" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="G238" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H238" s="21"/>
     </row>
     <row r="239" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -9158,12 +9624,14 @@
         <v>578</v>
       </c>
       <c r="E239" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F239" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G239" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="G239" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H239" s="21"/>
     </row>
     <row r="240" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -9180,12 +9648,14 @@
         <v>580</v>
       </c>
       <c r="E240" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F240" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G240" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="G240" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H240" s="21"/>
     </row>
     <row r="241" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -9202,12 +9672,14 @@
         <v>582</v>
       </c>
       <c r="E241" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F241" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G241" s="21"/>
+        <v>84</v>
+      </c>
+      <c r="G241" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H241" s="21"/>
     </row>
     <row r="242" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -9224,12 +9696,14 @@
         <v>584</v>
       </c>
       <c r="E242" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F242" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G242" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="G242" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H242" s="21"/>
     </row>
     <row r="243" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -9246,12 +9720,14 @@
         <v>586</v>
       </c>
       <c r="E243" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F243" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G243" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="G243" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H243" s="21"/>
     </row>
     <row r="244" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -9268,12 +9744,14 @@
         <v>588</v>
       </c>
       <c r="E244" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F244" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G244" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="G244" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H244" s="21"/>
     </row>
     <row r="245" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -9290,12 +9768,14 @@
         <v>590</v>
       </c>
       <c r="E245" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F245" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G245" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="G245" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H245" s="21"/>
     </row>
     <row r="246" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -9312,12 +9792,14 @@
         <v>592</v>
       </c>
       <c r="E246" s="21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F246" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G246" s="21"/>
+        <v>172</v>
+      </c>
+      <c r="G246" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="H246" s="21"/>
     </row>
     <row r="247" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -9334,16 +9816,18 @@
         <v>594</v>
       </c>
       <c r="E247" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F247" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G247" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="G247" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H247" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H247" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:H247" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9351,7 +9835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9367,364 +9851,364 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>38</v>
+      <c r="B2" s="34" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>595</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>27</v>
+      <c r="B4" s="39" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="6" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="6" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="6" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="6" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="6" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="6" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="6" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="6" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="6" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="6" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="6" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="6" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="6" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="6" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="6" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="6" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="6" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="6" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="6" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="6" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="6" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="6" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="6" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="6" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="6" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="6" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="6" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="6" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="6" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="6" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="6" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="6" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="6" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="6" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="6" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="6" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="6" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="6" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="6" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="6" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
-      <c r="B45" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>47</v>
+      <c r="A45" s="32"/>
+      <c r="B45" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="31"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="30" t="s">
-        <v>53</v>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="35" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="33"/>
-      <c r="B49" s="32" t="s">
-        <v>54</v>
+      <c r="A49" s="32"/>
+      <c r="B49" s="36" t="s">
+        <v>39</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -9744,7 +10228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9763,31 +10247,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>636</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42" t="s">
         <v>637</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42" t="s">
         <v>638</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="39"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="40"/>
     </row>
     <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -9808,7 +10292,7 @@
       <c r="F2" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="29" t="s">
         <v>640</v>
       </c>
@@ -9824,7 +10308,7 @@
       <c r="L2" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="M2" s="33"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="29" t="s">
         <v>640</v>
       </c>
@@ -9840,7 +10324,7 @@
       <c r="R2" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="S2" s="40"/>
+      <c r="S2" s="41"/>
       <c r="T2" s="29" t="s">
         <v>645</v>
       </c>
@@ -9867,7 +10351,7 @@
         <f t="shared" ref="F3:F23" si="2">E3/A3</f>
         <v>2160</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="7">
         <v>1920</v>
       </c>
@@ -9886,7 +10370,7 @@
         <f t="shared" ref="L3:L23" si="5">K3/A3</f>
         <v>1080</v>
       </c>
-      <c r="M3" s="33"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="7">
         <v>1280</v>
       </c>
@@ -9905,7 +10389,7 @@
         <f t="shared" ref="R3:R23" si="8">Q3/A3</f>
         <v>720</v>
       </c>
-      <c r="S3" s="40"/>
+      <c r="S3" s="41"/>
       <c r="T3" s="10">
         <v>0</v>
       </c>
@@ -9932,7 +10416,7 @@
         <f t="shared" si="2"/>
         <v>1963.6363636363635</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="7">
         <v>1920</v>
       </c>
@@ -9951,7 +10435,7 @@
         <f t="shared" si="5"/>
         <v>981.81818181818176</v>
       </c>
-      <c r="M4" s="33"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="7">
         <v>1280</v>
       </c>
@@ -9970,7 +10454,7 @@
         <f t="shared" si="8"/>
         <v>654.5454545454545</v>
       </c>
-      <c r="S4" s="40"/>
+      <c r="S4" s="41"/>
       <c r="T4" s="10">
         <v>5</v>
       </c>
@@ -9997,7 +10481,7 @@
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="7">
         <v>1920</v>
       </c>
@@ -10016,7 +10500,7 @@
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="M5" s="33"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="7">
         <v>1280</v>
       </c>
@@ -10035,7 +10519,7 @@
         <f t="shared" si="8"/>
         <v>600</v>
       </c>
-      <c r="S5" s="40"/>
+      <c r="S5" s="41"/>
       <c r="T5" s="10">
         <v>10</v>
       </c>
@@ -10062,7 +10546,7 @@
         <f t="shared" si="2"/>
         <v>1661.5384615384614</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="7">
         <v>1920</v>
       </c>
@@ -10081,7 +10565,7 @@
         <f t="shared" si="5"/>
         <v>830.76923076923072</v>
       </c>
-      <c r="M6" s="33"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="7">
         <v>1280</v>
       </c>
@@ -10100,7 +10584,7 @@
         <f t="shared" si="8"/>
         <v>553.84615384615381</v>
       </c>
-      <c r="S6" s="40"/>
+      <c r="S6" s="41"/>
       <c r="T6" s="10">
         <v>14</v>
       </c>
@@ -10127,7 +10611,7 @@
         <f t="shared" si="2"/>
         <v>1542.8571428571429</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="7">
         <v>1920</v>
       </c>
@@ -10146,7 +10630,7 @@
         <f t="shared" si="5"/>
         <v>771.42857142857144</v>
       </c>
-      <c r="M7" s="33"/>
+      <c r="M7" s="32"/>
       <c r="N7" s="7">
         <v>1280</v>
       </c>
@@ -10165,7 +10649,7 @@
         <f t="shared" si="8"/>
         <v>514.28571428571433</v>
       </c>
-      <c r="S7" s="40"/>
+      <c r="S7" s="41"/>
       <c r="T7" s="10">
         <v>17</v>
       </c>
@@ -10192,7 +10676,7 @@
         <f t="shared" si="2"/>
         <v>1440</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="7">
         <v>1920</v>
       </c>
@@ -10211,7 +10695,7 @@
         <f t="shared" si="5"/>
         <v>720</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="32"/>
       <c r="N8" s="7">
         <v>1280</v>
       </c>
@@ -10230,7 +10714,7 @@
         <f t="shared" si="8"/>
         <v>480</v>
       </c>
-      <c r="S8" s="40"/>
+      <c r="S8" s="41"/>
       <c r="T8" s="10">
         <v>20</v>
       </c>
@@ -10257,7 +10741,7 @@
         <f t="shared" si="2"/>
         <v>1350</v>
       </c>
-      <c r="G9" s="33"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="7">
         <v>1920</v>
       </c>
@@ -10276,7 +10760,7 @@
         <f t="shared" si="5"/>
         <v>675</v>
       </c>
-      <c r="M9" s="33"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="7">
         <v>1280</v>
       </c>
@@ -10295,7 +10779,7 @@
         <f t="shared" si="8"/>
         <v>450</v>
       </c>
-      <c r="S9" s="40"/>
+      <c r="S9" s="41"/>
       <c r="T9" s="10">
         <v>23</v>
       </c>
@@ -10322,7 +10806,7 @@
         <f t="shared" si="2"/>
         <v>1270.5882352941176</v>
       </c>
-      <c r="G10" s="33"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="7">
         <v>1920</v>
       </c>
@@ -10341,7 +10825,7 @@
         <f t="shared" si="5"/>
         <v>635.29411764705878</v>
       </c>
-      <c r="M10" s="33"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="7">
         <v>1280</v>
       </c>
@@ -10360,7 +10844,7 @@
         <f t="shared" si="8"/>
         <v>423.52941176470591</v>
       </c>
-      <c r="S10" s="40"/>
+      <c r="S10" s="41"/>
       <c r="T10" s="10">
         <v>25</v>
       </c>
@@ -10387,7 +10871,7 @@
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="7">
         <v>1920</v>
       </c>
@@ -10406,7 +10890,7 @@
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="M11" s="33"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="7">
         <v>1280</v>
       </c>
@@ -10425,7 +10909,7 @@
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="S11" s="40"/>
+      <c r="S11" s="41"/>
       <c r="T11" s="10">
         <v>27</v>
       </c>
@@ -10452,7 +10936,7 @@
         <f t="shared" si="2"/>
         <v>1136.8421052631579</v>
       </c>
-      <c r="G12" s="33"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="7">
         <v>1920</v>
       </c>
@@ -10471,7 +10955,7 @@
         <f t="shared" si="5"/>
         <v>568.42105263157896</v>
       </c>
-      <c r="M12" s="33"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="7">
         <v>1280</v>
       </c>
@@ -10490,7 +10974,7 @@
         <f t="shared" si="8"/>
         <v>378.94736842105266</v>
       </c>
-      <c r="S12" s="40"/>
+      <c r="S12" s="41"/>
       <c r="T12" s="10">
         <v>28</v>
       </c>
@@ -10517,7 +11001,7 @@
         <f t="shared" si="2"/>
         <v>1080</v>
       </c>
-      <c r="G13" s="33"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="7">
         <v>1920</v>
       </c>
@@ -10536,7 +11020,7 @@
         <f t="shared" si="5"/>
         <v>540</v>
       </c>
-      <c r="M13" s="33"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="7">
         <v>1280</v>
       </c>
@@ -10555,7 +11039,7 @@
         <f t="shared" si="8"/>
         <v>360</v>
       </c>
-      <c r="S13" s="40"/>
+      <c r="S13" s="41"/>
       <c r="T13" s="10">
         <v>30</v>
       </c>
@@ -10582,7 +11066,7 @@
         <f t="shared" si="2"/>
         <v>1028.5714285714284</v>
       </c>
-      <c r="G14" s="33"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="7">
         <v>1920</v>
       </c>
@@ -10601,7 +11085,7 @@
         <f t="shared" si="5"/>
         <v>514.28571428571422</v>
       </c>
-      <c r="M14" s="33"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="7">
         <v>1280</v>
       </c>
@@ -10620,7 +11104,7 @@
         <f t="shared" si="8"/>
         <v>342.85714285714283</v>
       </c>
-      <c r="S14" s="40"/>
+      <c r="S14" s="41"/>
       <c r="T14" s="10">
         <v>31</v>
       </c>
@@ -10647,7 +11131,7 @@
         <f t="shared" si="2"/>
         <v>981.81818181818176</v>
       </c>
-      <c r="G15" s="33"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="7">
         <v>1920</v>
       </c>
@@ -10666,7 +11150,7 @@
         <f t="shared" si="5"/>
         <v>490.90909090909088</v>
       </c>
-      <c r="M15" s="33"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="7">
         <v>1280</v>
       </c>
@@ -10685,7 +11169,7 @@
         <f t="shared" si="8"/>
         <v>327.27272727272725</v>
       </c>
-      <c r="S15" s="40"/>
+      <c r="S15" s="41"/>
       <c r="T15" s="10">
         <v>33</v>
       </c>
@@ -10712,7 +11196,7 @@
         <f t="shared" si="2"/>
         <v>939.13043478260875</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="7">
         <v>1920</v>
       </c>
@@ -10731,7 +11215,7 @@
         <f t="shared" si="5"/>
         <v>469.56521739130437</v>
       </c>
-      <c r="M16" s="33"/>
+      <c r="M16" s="32"/>
       <c r="N16" s="7">
         <v>1280</v>
       </c>
@@ -10750,7 +11234,7 @@
         <f t="shared" si="8"/>
         <v>313.04347826086956</v>
       </c>
-      <c r="S16" s="40"/>
+      <c r="S16" s="41"/>
       <c r="T16" s="10">
         <v>34</v>
       </c>
@@ -10777,7 +11261,7 @@
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="G17" s="33"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="7">
         <v>1920</v>
       </c>
@@ -10796,7 +11280,7 @@
         <f t="shared" si="5"/>
         <v>450</v>
       </c>
-      <c r="M17" s="33"/>
+      <c r="M17" s="32"/>
       <c r="N17" s="7">
         <v>1280</v>
       </c>
@@ -10815,7 +11299,7 @@
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="S17" s="40"/>
+      <c r="S17" s="41"/>
       <c r="T17" s="10">
         <v>35</v>
       </c>
@@ -10842,7 +11326,7 @@
         <f t="shared" si="2"/>
         <v>864</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="7">
         <v>1920</v>
       </c>
@@ -10861,7 +11345,7 @@
         <f t="shared" si="5"/>
         <v>432</v>
       </c>
-      <c r="M18" s="33"/>
+      <c r="M18" s="32"/>
       <c r="N18" s="7">
         <v>1280</v>
       </c>
@@ -10880,7 +11364,7 @@
         <f t="shared" si="8"/>
         <v>288</v>
       </c>
-      <c r="S18" s="40"/>
+      <c r="S18" s="41"/>
       <c r="T18" s="10">
         <v>36</v>
       </c>
@@ -10907,7 +11391,7 @@
         <f t="shared" si="2"/>
         <v>830.76923076923072</v>
       </c>
-      <c r="G19" s="33"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="7">
         <v>1920</v>
       </c>
@@ -10926,7 +11410,7 @@
         <f t="shared" si="5"/>
         <v>415.38461538461536</v>
       </c>
-      <c r="M19" s="33"/>
+      <c r="M19" s="32"/>
       <c r="N19" s="7">
         <v>1280</v>
       </c>
@@ -10945,7 +11429,7 @@
         <f t="shared" si="8"/>
         <v>276.92307692307691</v>
       </c>
-      <c r="S19" s="40"/>
+      <c r="S19" s="41"/>
       <c r="T19" s="10">
         <v>37</v>
       </c>
@@ -10972,7 +11456,7 @@
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="G20" s="33"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="7">
         <v>1920</v>
       </c>
@@ -10991,7 +11475,7 @@
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
-      <c r="M20" s="33"/>
+      <c r="M20" s="32"/>
       <c r="N20" s="7">
         <v>1280</v>
       </c>
@@ -11010,7 +11494,7 @@
         <f t="shared" si="8"/>
         <v>266.66666666666663</v>
       </c>
-      <c r="S20" s="40"/>
+      <c r="S20" s="41"/>
       <c r="T20" s="10">
         <v>38</v>
       </c>
@@ -11037,7 +11521,7 @@
         <f t="shared" si="2"/>
         <v>771.42857142857144</v>
       </c>
-      <c r="G21" s="33"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="7">
         <v>1920</v>
       </c>
@@ -11056,7 +11540,7 @@
         <f t="shared" si="5"/>
         <v>385.71428571428572</v>
       </c>
-      <c r="M21" s="33"/>
+      <c r="M21" s="32"/>
       <c r="N21" s="7">
         <v>1280</v>
       </c>
@@ -11075,7 +11559,7 @@
         <f t="shared" si="8"/>
         <v>257.14285714285717</v>
       </c>
-      <c r="S21" s="40"/>
+      <c r="S21" s="41"/>
       <c r="T21" s="10">
         <v>39</v>
       </c>
@@ -11102,7 +11586,7 @@
         <f t="shared" si="2"/>
         <v>744.82758620689663</v>
       </c>
-      <c r="G22" s="33"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="7">
         <v>1920</v>
       </c>
@@ -11121,7 +11605,7 @@
         <f t="shared" si="5"/>
         <v>372.41379310344831</v>
       </c>
-      <c r="M22" s="33"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="7">
         <v>1280</v>
       </c>
@@ -11140,7 +11624,7 @@
         <f t="shared" si="8"/>
         <v>248.27586206896552</v>
       </c>
-      <c r="S22" s="40"/>
+      <c r="S22" s="41"/>
       <c r="T22" s="10">
         <v>39</v>
       </c>
@@ -11167,7 +11651,7 @@
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="G23" s="31"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="7">
         <v>1920</v>
       </c>
@@ -11186,7 +11670,7 @@
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="M23" s="31"/>
+      <c r="M23" s="33"/>
       <c r="N23" s="7">
         <v>1280</v>
       </c>
@@ -11205,7 +11689,7 @@
         <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="S23" s="40"/>
+      <c r="S23" s="41"/>
       <c r="T23" s="10">
         <v>40</v>
       </c>
@@ -11226,11 +11710,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11240,8 +11724,8 @@
     <col min="3" max="3" width="20.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="22" style="13" customWidth="1"/>
     <col min="5" max="5" width="31.125" style="13" customWidth="1"/>
-    <col min="6" max="24" width="9" style="13" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="13"/>
+    <col min="6" max="25" width="9" style="13" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11295,11 +11779,11 @@
         <v>655</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="30" t="s">
         <v>660</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -11309,7 +11793,7 @@
         <v>662</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.1.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\twoDproject\digitalZoom\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73522E88-0D4C-4513-9868-51823C60E1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CE10E7-BD9F-4402-A3AC-5E68647515D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,9 +248,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>0,MJPG 3840×2160P 30(P 16:9),-1</t>
-  </si>
-  <si>
     <t>使用amcap\potplyer工具打开MJPG 4k分辨率预览，并处于无变焦状态</t>
   </si>
   <si>
@@ -2072,6 +2069,10 @@
   </si>
   <si>
     <t>陈广涛</t>
+  </si>
+  <si>
+    <t>0,MJPG 3840×2160P 30(P 16:9),-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2371,18 +2372,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2782,10 +2783,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -2809,8 +2810,8 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="18" t="s">
         <v>17</v>
       </c>
@@ -2832,8 +2833,8 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="19" t="s">
         <v>19</v>
       </c>
@@ -2855,10 +2856,10 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2882,8 +2883,8 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
@@ -2908,10 +2909,10 @@
       <c r="A7" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -2932,9 +2933,9 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="6" t="s">
         <v>37</v>
       </c>
@@ -2953,9 +2954,9 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="35" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="31" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -2976,9 +2977,9 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="6" t="s">
         <v>37</v>
       </c>
@@ -2997,8 +2998,8 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -3022,8 +3023,8 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="6" t="s">
         <v>44</v>
       </c>
@@ -3048,10 +3049,10 @@
       <c r="A13" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3072,9 +3073,9 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="6" t="s">
         <v>37</v>
       </c>
@@ -3093,9 +3094,9 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="35" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="31" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -3116,9 +3117,9 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="6" t="s">
         <v>37</v>
       </c>
@@ -3137,8 +3138,8 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -3162,8 +3163,8 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="6" t="s">
         <v>44</v>
       </c>
@@ -3188,10 +3189,10 @@
       <c r="A19" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -3212,9 +3213,9 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="6" t="s">
         <v>37</v>
       </c>
@@ -3233,9 +3234,9 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="35" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="31" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -3256,9 +3257,9 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="6" t="s">
         <v>37</v>
       </c>
@@ -3277,8 +3278,8 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="36" t="s">
+      <c r="A23" s="34"/>
+      <c r="B23" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -3302,8 +3303,8 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="6" t="s">
         <v>44</v>
       </c>
@@ -3328,10 +3329,10 @@
       <c r="A25" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -3352,9 +3353,9 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="6" t="s">
         <v>37</v>
       </c>
@@ -3373,9 +3374,9 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="35" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="31" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -3396,9 +3397,9 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="6" t="s">
         <v>37</v>
       </c>
@@ -3417,8 +3418,8 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -3442,8 +3443,8 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="6" t="s">
         <v>44</v>
       </c>
@@ -3468,10 +3469,10 @@
       <c r="A31" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -3492,9 +3493,9 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="6" t="s">
         <v>37</v>
       </c>
@@ -3513,9 +3514,9 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="35" t="s">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="31" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -3536,9 +3537,9 @@
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="6" t="s">
         <v>37</v>
       </c>
@@ -3557,8 +3558,8 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="36" t="s">
+      <c r="A35" s="34"/>
+      <c r="B35" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -3582,8 +3583,8 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="6" t="s">
         <v>44</v>
       </c>
@@ -3608,10 +3609,10 @@
       <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -3632,9 +3633,9 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="6" t="s">
         <v>37</v>
       </c>
@@ -3653,9 +3654,9 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="35" t="s">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="31" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -3676,9 +3677,9 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="6" t="s">
         <v>37</v>
       </c>
@@ -3697,8 +3698,8 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
-      <c r="B41" s="36" t="s">
+      <c r="A41" s="34"/>
+      <c r="B41" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -3722,8 +3723,8 @@
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="6" t="s">
         <v>44</v>
       </c>
@@ -3772,7 +3773,7 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3799,7 +3800,7 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="2" t="s">
         <v>60</v>
       </c>
@@ -3826,26 +3827,6 @@
   </sheetData>
   <autoFilter ref="A1:I45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="35">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B25:B28"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A44:A45"/>
@@ -3861,6 +3842,26 @@
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="A31:A36"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1">
@@ -3881,7 +3882,7 @@
   <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3927,19 +3928,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>662</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>16</v>
@@ -3951,19 +3952,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>72</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>16</v>
@@ -3975,19 +3976,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>74</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>75</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>16</v>
@@ -3999,19 +4000,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>77</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>78</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>16</v>
@@ -4023,19 +4024,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="E6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>16</v>
@@ -4047,19 +4048,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>16</v>
@@ -4071,19 +4072,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>87</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>16</v>
@@ -4095,19 +4096,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="E9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>16</v>
@@ -4119,19 +4120,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="21" t="s">
+      <c r="E10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>92</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>93</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>16</v>
@@ -4143,19 +4144,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="D11" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="E11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>96</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>97</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>16</v>
@@ -4167,19 +4168,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="E12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>100</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>16</v>
@@ -4191,19 +4192,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>102</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>103</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>16</v>
@@ -4215,19 +4216,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="E14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>105</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>106</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>16</v>
@@ -4239,19 +4240,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="21" t="s">
+      <c r="E15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>108</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>109</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>16</v>
@@ -4263,19 +4264,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="21" t="s">
+      <c r="E16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>111</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>16</v>
@@ -4287,19 +4288,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="E17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>115</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>16</v>
@@ -4311,19 +4312,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="21" t="s">
+      <c r="E18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>118</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>16</v>
@@ -4335,19 +4336,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="21" t="s">
+      <c r="E19" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>16</v>
@@ -4359,19 +4360,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="E20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>124</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>16</v>
@@ -4383,19 +4384,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="21" t="s">
+      <c r="E21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>127</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>16</v>
@@ -4407,19 +4408,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="24" t="s">
+      <c r="E22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>16</v>
@@ -4431,19 +4432,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="D23" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="E23" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>16</v>
@@ -4455,19 +4456,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>135</v>
-      </c>
       <c r="E24" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>16</v>
@@ -4479,19 +4480,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>137</v>
-      </c>
       <c r="E25" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>16</v>
@@ -4503,19 +4504,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>139</v>
-      </c>
       <c r="E26" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>16</v>
@@ -4527,19 +4528,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>141</v>
-      </c>
       <c r="E27" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>16</v>
@@ -4551,19 +4552,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="21" t="s">
+      <c r="E28" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>143</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>144</v>
       </c>
       <c r="G28" s="21" t="s">
         <v>16</v>
@@ -4575,19 +4576,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>146</v>
-      </c>
       <c r="E29" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>16</v>
@@ -4599,19 +4600,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>148</v>
-      </c>
       <c r="E30" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G30" s="21" t="s">
         <v>16</v>
@@ -4623,19 +4624,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="21" t="s">
+      <c r="E31" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>150</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>151</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>16</v>
@@ -4647,19 +4648,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>153</v>
-      </c>
       <c r="E32" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>16</v>
@@ -4671,19 +4672,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>155</v>
-      </c>
       <c r="E33" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>16</v>
@@ -4695,19 +4696,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>157</v>
-      </c>
       <c r="E34" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>16</v>
@@ -4719,19 +4720,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>159</v>
-      </c>
       <c r="E35" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>16</v>
@@ -4743,19 +4744,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>161</v>
-      </c>
       <c r="E36" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="21" t="s">
         <v>16</v>
@@ -4767,19 +4768,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>163</v>
-      </c>
       <c r="E37" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>16</v>
@@ -4791,19 +4792,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>165</v>
-      </c>
       <c r="E38" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>16</v>
@@ -4815,19 +4816,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>167</v>
-      </c>
       <c r="E39" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>16</v>
@@ -4839,19 +4840,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>169</v>
-      </c>
       <c r="E40" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>16</v>
@@ -4863,19 +4864,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="21" t="s">
+      <c r="E41" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="21" t="s">
         <v>171</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>172</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>16</v>
@@ -4887,19 +4888,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>174</v>
-      </c>
       <c r="E42" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>16</v>
@@ -4911,19 +4912,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="D43" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="24" t="s">
-        <v>177</v>
-      </c>
       <c r="E43" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G43" s="24" t="s">
         <v>16</v>
@@ -4935,19 +4936,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>179</v>
-      </c>
       <c r="E44" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G44" s="21" t="s">
         <v>16</v>
@@ -4959,19 +4960,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>181</v>
-      </c>
       <c r="E45" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>16</v>
@@ -4983,19 +4984,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>183</v>
-      </c>
       <c r="E46" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>16</v>
@@ -5007,19 +5008,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C47" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>185</v>
-      </c>
       <c r="E47" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>16</v>
@@ -5031,19 +5032,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>187</v>
-      </c>
       <c r="E48" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>16</v>
@@ -5055,19 +5056,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>189</v>
-      </c>
       <c r="E49" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>16</v>
@@ -5079,19 +5080,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>191</v>
-      </c>
       <c r="E50" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G50" s="21" t="s">
         <v>16</v>
@@ -5103,19 +5104,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>193</v>
-      </c>
       <c r="E51" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G51" s="21" t="s">
         <v>16</v>
@@ -5127,19 +5128,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>195</v>
-      </c>
       <c r="E52" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>16</v>
@@ -5151,19 +5152,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>197</v>
-      </c>
       <c r="E53" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>16</v>
@@ -5175,19 +5176,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>199</v>
-      </c>
       <c r="E54" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>16</v>
@@ -5199,19 +5200,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C55" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>201</v>
-      </c>
       <c r="E55" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>16</v>
@@ -5223,19 +5224,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>203</v>
-      </c>
       <c r="E56" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>16</v>
@@ -5247,19 +5248,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>205</v>
-      </c>
       <c r="E57" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>16</v>
@@ -5271,19 +5272,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="C58" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>207</v>
-      </c>
       <c r="E58" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>16</v>
@@ -5295,19 +5296,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C59" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>209</v>
-      </c>
       <c r="E59" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>16</v>
@@ -5319,19 +5320,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C60" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>211</v>
-      </c>
       <c r="E60" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G60" s="21" t="s">
         <v>16</v>
@@ -5343,19 +5344,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C61" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>213</v>
-      </c>
       <c r="E61" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>16</v>
@@ -5367,19 +5368,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="C62" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>215</v>
-      </c>
       <c r="E62" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>16</v>
@@ -5391,19 +5392,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="C63" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>217</v>
-      </c>
       <c r="E63" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G63" s="24" t="s">
         <v>16</v>
@@ -5415,19 +5416,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="D64" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="21" t="s">
-        <v>220</v>
-      </c>
       <c r="E64" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>16</v>
@@ -5439,19 +5440,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D65" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="C65" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>222</v>
-      </c>
       <c r="E65" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G65" s="21" t="s">
         <v>16</v>
@@ -5463,19 +5464,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D66" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C66" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>224</v>
-      </c>
       <c r="E66" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G66" s="21" t="s">
         <v>16</v>
@@ -5487,19 +5488,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="C67" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>226</v>
-      </c>
       <c r="E67" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G67" s="21" t="s">
         <v>16</v>
@@ -5511,19 +5512,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D68" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="C68" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>228</v>
-      </c>
       <c r="E68" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G68" s="21" t="s">
         <v>16</v>
@@ -5535,19 +5536,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="C69" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>230</v>
-      </c>
       <c r="E69" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G69" s="21" t="s">
         <v>16</v>
@@ -5559,19 +5560,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D70" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="C70" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>232</v>
-      </c>
       <c r="E70" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G70" s="21" t="s">
         <v>16</v>
@@ -5583,19 +5584,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D71" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="C71" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>234</v>
-      </c>
       <c r="E71" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G71" s="21" t="s">
         <v>16</v>
@@ -5607,19 +5608,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="C72" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>236</v>
-      </c>
       <c r="E72" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>16</v>
@@ -5631,19 +5632,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="C73" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>238</v>
-      </c>
       <c r="E73" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G73" s="21" t="s">
         <v>16</v>
@@ -5655,19 +5656,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C74" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>240</v>
-      </c>
       <c r="E74" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="21" t="s">
         <v>16</v>
@@ -5679,19 +5680,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="C75" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>242</v>
-      </c>
       <c r="E75" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G75" s="21" t="s">
         <v>16</v>
@@ -5703,19 +5704,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C76" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>244</v>
-      </c>
       <c r="E76" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G76" s="21" t="s">
         <v>16</v>
@@ -5727,19 +5728,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D77" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="C77" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>246</v>
-      </c>
       <c r="E77" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G77" s="21" t="s">
         <v>16</v>
@@ -5751,19 +5752,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D78" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C78" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>248</v>
-      </c>
       <c r="E78" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G78" s="21" t="s">
         <v>16</v>
@@ -5775,19 +5776,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D79" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C79" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>250</v>
-      </c>
       <c r="E79" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G79" s="21" t="s">
         <v>16</v>
@@ -5799,19 +5800,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D80" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="C80" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>252</v>
-      </c>
       <c r="E80" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G80" s="21" t="s">
         <v>16</v>
@@ -5823,19 +5824,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D81" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>254</v>
-      </c>
       <c r="E81" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G81" s="21" t="s">
         <v>16</v>
@@ -5847,19 +5848,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D82" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="C82" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>256</v>
-      </c>
       <c r="E82" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G82" s="21" t="s">
         <v>16</v>
@@ -5871,19 +5872,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D83" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="C83" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>258</v>
-      </c>
       <c r="E83" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G83" s="24" t="s">
         <v>16</v>
@@ -5895,19 +5896,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="D84" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="D84" s="24" t="s">
-        <v>261</v>
-      </c>
       <c r="E84" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G84" s="24" t="s">
         <v>16</v>
@@ -5919,19 +5920,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D85" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C85" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>263</v>
-      </c>
       <c r="E85" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G85" s="21" t="s">
         <v>16</v>
@@ -5943,19 +5944,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D86" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C86" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>265</v>
-      </c>
       <c r="E86" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G86" s="21" t="s">
         <v>16</v>
@@ -5967,19 +5968,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D87" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C87" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>267</v>
-      </c>
       <c r="E87" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>16</v>
@@ -5991,19 +5992,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D88" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="C88" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>269</v>
-      </c>
       <c r="E88" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G88" s="21" t="s">
         <v>16</v>
@@ -6015,19 +6016,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D89" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C89" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>271</v>
-      </c>
       <c r="E89" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G89" s="21" t="s">
         <v>16</v>
@@ -6039,19 +6040,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="C90" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>273</v>
-      </c>
       <c r="E90" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G90" s="21" t="s">
         <v>16</v>
@@ -6063,19 +6064,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D91" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="C91" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>275</v>
-      </c>
       <c r="E91" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G91" s="21" t="s">
         <v>16</v>
@@ -6087,19 +6088,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D92" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="C92" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D92" s="21" t="s">
-        <v>277</v>
-      </c>
       <c r="E92" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G92" s="21" t="s">
         <v>16</v>
@@ -6111,19 +6112,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D93" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C93" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>279</v>
-      </c>
       <c r="E93" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G93" s="21" t="s">
         <v>16</v>
@@ -6135,19 +6136,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D94" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D94" s="21" t="s">
-        <v>281</v>
-      </c>
       <c r="E94" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G94" s="21" t="s">
         <v>16</v>
@@ -6159,19 +6160,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D95" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="C95" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D95" s="21" t="s">
-        <v>283</v>
-      </c>
       <c r="E95" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G95" s="21" t="s">
         <v>16</v>
@@ -6183,19 +6184,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D96" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="C96" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>285</v>
-      </c>
       <c r="E96" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G96" s="21" t="s">
         <v>16</v>
@@ -6207,19 +6208,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D97" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="C97" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D97" s="21" t="s">
-        <v>287</v>
-      </c>
       <c r="E97" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G97" s="21" t="s">
         <v>16</v>
@@ -6231,19 +6232,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D98" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="C98" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>289</v>
-      </c>
       <c r="E98" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G98" s="21" t="s">
         <v>16</v>
@@ -6255,19 +6256,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D99" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="C99" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>291</v>
-      </c>
       <c r="E99" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G99" s="21" t="s">
         <v>16</v>
@@ -6279,19 +6280,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D100" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="C100" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D100" s="21" t="s">
-        <v>293</v>
-      </c>
       <c r="E100" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G100" s="21" t="s">
         <v>16</v>
@@ -6303,19 +6304,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D101" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="C101" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D101" s="21" t="s">
-        <v>295</v>
-      </c>
       <c r="E101" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G101" s="21" t="s">
         <v>16</v>
@@ -6327,19 +6328,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D102" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="C102" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D102" s="21" t="s">
-        <v>297</v>
-      </c>
       <c r="E102" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G102" s="21" t="s">
         <v>16</v>
@@ -6351,19 +6352,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D103" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="C103" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D103" s="21" t="s">
-        <v>299</v>
-      </c>
       <c r="E103" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>16</v>
@@ -6375,19 +6376,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D104" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="C104" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>301</v>
-      </c>
       <c r="E104" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G104" s="24" t="s">
         <v>16</v>
@@ -6399,19 +6400,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C105" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="D105" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="D105" s="21" t="s">
-        <v>304</v>
-      </c>
       <c r="E105" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G105" s="21" t="s">
         <v>16</v>
@@ -6423,19 +6424,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D106" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="C106" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>306</v>
-      </c>
       <c r="E106" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G106" s="21" t="s">
         <v>16</v>
@@ -6447,19 +6448,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D107" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="C107" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D107" s="21" t="s">
-        <v>308</v>
-      </c>
       <c r="E107" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G107" s="21" t="s">
         <v>16</v>
@@ -6471,19 +6472,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D108" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="C108" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D108" s="21" t="s">
-        <v>310</v>
-      </c>
       <c r="E108" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G108" s="21" t="s">
         <v>16</v>
@@ -6495,19 +6496,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D109" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="C109" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D109" s="21" t="s">
-        <v>312</v>
-      </c>
       <c r="E109" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G109" s="21" t="s">
         <v>16</v>
@@ -6519,19 +6520,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D110" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="C110" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D110" s="21" t="s">
-        <v>314</v>
-      </c>
       <c r="E110" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G110" s="21" t="s">
         <v>16</v>
@@ -6543,19 +6544,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D111" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="C111" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D111" s="21" t="s">
-        <v>316</v>
-      </c>
       <c r="E111" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G111" s="21" t="s">
         <v>16</v>
@@ -6567,19 +6568,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D112" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="C112" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D112" s="21" t="s">
-        <v>318</v>
-      </c>
       <c r="E112" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G112" s="21" t="s">
         <v>16</v>
@@ -6591,19 +6592,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D113" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="C113" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D113" s="21" t="s">
-        <v>320</v>
-      </c>
       <c r="E113" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G113" s="21" t="s">
         <v>16</v>
@@ -6615,19 +6616,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D114" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="C114" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D114" s="21" t="s">
-        <v>322</v>
-      </c>
       <c r="E114" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G114" s="21" t="s">
         <v>16</v>
@@ -6639,19 +6640,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D115" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C115" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D115" s="21" t="s">
-        <v>324</v>
-      </c>
       <c r="E115" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G115" s="21" t="s">
         <v>16</v>
@@ -6663,19 +6664,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D116" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C116" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D116" s="21" t="s">
-        <v>326</v>
-      </c>
       <c r="E116" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G116" s="21" t="s">
         <v>16</v>
@@ -6687,19 +6688,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D117" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C117" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D117" s="21" t="s">
-        <v>328</v>
-      </c>
       <c r="E117" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G117" s="21" t="s">
         <v>16</v>
@@ -6711,19 +6712,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D118" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="C118" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D118" s="21" t="s">
-        <v>330</v>
-      </c>
       <c r="E118" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F118" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G118" s="21" t="s">
         <v>16</v>
@@ -6735,19 +6736,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D119" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="C119" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D119" s="21" t="s">
-        <v>332</v>
-      </c>
       <c r="E119" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G119" s="21" t="s">
         <v>16</v>
@@ -6759,19 +6760,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D120" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="C120" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D120" s="21" t="s">
-        <v>334</v>
-      </c>
       <c r="E120" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G120" s="21" t="s">
         <v>16</v>
@@ -6783,19 +6784,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D121" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="C121" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D121" s="21" t="s">
-        <v>336</v>
-      </c>
       <c r="E121" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G121" s="21" t="s">
         <v>16</v>
@@ -6807,19 +6808,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D122" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="C122" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D122" s="21" t="s">
-        <v>338</v>
-      </c>
       <c r="E122" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G122" s="21" t="s">
         <v>16</v>
@@ -6831,19 +6832,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D123" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="C123" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="D123" s="21" t="s">
-        <v>340</v>
-      </c>
       <c r="E123" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G123" s="21" t="s">
         <v>16</v>
@@ -6855,19 +6856,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="D124" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="C124" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="D124" s="24" t="s">
-        <v>342</v>
-      </c>
       <c r="E124" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G124" s="24" t="s">
         <v>16</v>
@@ -6879,19 +6880,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C125" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="C125" s="24" t="s">
+      <c r="D125" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="D125" s="24" t="s">
-        <v>345</v>
-      </c>
       <c r="E125" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G125" s="24" t="s">
         <v>16</v>
@@ -6903,19 +6904,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D126" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="C126" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D126" s="21" t="s">
-        <v>347</v>
-      </c>
       <c r="E126" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G126" s="21" t="s">
         <v>16</v>
@@ -6927,19 +6928,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D127" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="C127" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>349</v>
-      </c>
       <c r="E127" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G127" s="21" t="s">
         <v>16</v>
@@ -6951,19 +6952,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D128" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="C128" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D128" s="21" t="s">
-        <v>351</v>
-      </c>
       <c r="E128" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G128" s="21" t="s">
         <v>16</v>
@@ -6975,19 +6976,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D129" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="C129" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>353</v>
-      </c>
       <c r="E129" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F129" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G129" s="21" t="s">
         <v>16</v>
@@ -6999,19 +7000,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D130" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="C130" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D130" s="21" t="s">
-        <v>355</v>
-      </c>
       <c r="E130" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F130" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G130" s="21" t="s">
         <v>16</v>
@@ -7023,19 +7024,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D131" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="C131" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D131" s="21" t="s">
-        <v>357</v>
-      </c>
       <c r="E131" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F131" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G131" s="21" t="s">
         <v>16</v>
@@ -7047,19 +7048,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D132" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="C132" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D132" s="21" t="s">
-        <v>359</v>
-      </c>
       <c r="E132" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F132" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G132" s="21" t="s">
         <v>16</v>
@@ -7071,19 +7072,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D133" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="C133" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D133" s="21" t="s">
-        <v>361</v>
-      </c>
       <c r="E133" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F133" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G133" s="21" t="s">
         <v>16</v>
@@ -7095,19 +7096,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D134" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="C134" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D134" s="21" t="s">
-        <v>363</v>
-      </c>
       <c r="E134" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G134" s="21" t="s">
         <v>16</v>
@@ -7119,19 +7120,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D135" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="C135" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D135" s="21" t="s">
-        <v>365</v>
-      </c>
       <c r="E135" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G135" s="21" t="s">
         <v>16</v>
@@ -7143,19 +7144,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D136" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="C136" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D136" s="21" t="s">
-        <v>367</v>
-      </c>
       <c r="E136" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G136" s="21" t="s">
         <v>16</v>
@@ -7167,19 +7168,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D137" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="C137" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D137" s="21" t="s">
-        <v>369</v>
-      </c>
       <c r="E137" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G137" s="21" t="s">
         <v>16</v>
@@ -7191,19 +7192,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D138" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="C138" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D138" s="21" t="s">
-        <v>371</v>
-      </c>
       <c r="E138" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G138" s="21" t="s">
         <v>16</v>
@@ -7215,19 +7216,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D139" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="C139" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D139" s="21" t="s">
-        <v>373</v>
-      </c>
       <c r="E139" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F139" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G139" s="21" t="s">
         <v>16</v>
@@ -7239,19 +7240,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D140" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="C140" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D140" s="21" t="s">
-        <v>375</v>
-      </c>
       <c r="E140" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F140" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G140" s="21" t="s">
         <v>16</v>
@@ -7263,19 +7264,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D141" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="C141" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D141" s="21" t="s">
-        <v>377</v>
-      </c>
       <c r="E141" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F141" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G141" s="21" t="s">
         <v>16</v>
@@ -7287,19 +7288,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D142" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="C142" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D142" s="21" t="s">
-        <v>379</v>
-      </c>
       <c r="E142" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F142" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G142" s="21" t="s">
         <v>16</v>
@@ -7311,19 +7312,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D143" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="C143" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D143" s="21" t="s">
-        <v>381</v>
-      </c>
       <c r="E143" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F143" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G143" s="21" t="s">
         <v>16</v>
@@ -7335,19 +7336,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D144" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="C144" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D144" s="21" t="s">
-        <v>383</v>
-      </c>
       <c r="E144" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G144" s="21" t="s">
         <v>16</v>
@@ -7359,19 +7360,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="D145" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="C145" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="D145" s="24" t="s">
-        <v>385</v>
-      </c>
       <c r="E145" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F145" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G145" s="24" t="s">
         <v>16</v>
@@ -7383,19 +7384,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="C146" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="C146" s="21" t="s">
+      <c r="D146" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="D146" s="21" t="s">
-        <v>388</v>
-      </c>
       <c r="E146" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G146" s="21" t="s">
         <v>16</v>
@@ -7407,19 +7408,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D147" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="C147" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D147" s="21" t="s">
-        <v>390</v>
-      </c>
       <c r="E147" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F147" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G147" s="21" t="s">
         <v>16</v>
@@ -7431,19 +7432,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D148" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="C148" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D148" s="21" t="s">
-        <v>392</v>
-      </c>
       <c r="E148" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F148" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G148" s="21" t="s">
         <v>16</v>
@@ -7455,19 +7456,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D149" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="C149" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D149" s="21" t="s">
-        <v>394</v>
-      </c>
       <c r="E149" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F149" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G149" s="21" t="s">
         <v>16</v>
@@ -7479,19 +7480,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D150" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="C150" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D150" s="21" t="s">
-        <v>396</v>
-      </c>
       <c r="E150" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F150" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G150" s="21" t="s">
         <v>16</v>
@@ -7503,19 +7504,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D151" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="C151" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D151" s="21" t="s">
-        <v>398</v>
-      </c>
       <c r="E151" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F151" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G151" s="21" t="s">
         <v>16</v>
@@ -7527,19 +7528,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D152" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="C152" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D152" s="21" t="s">
-        <v>400</v>
-      </c>
       <c r="E152" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F152" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G152" s="21" t="s">
         <v>16</v>
@@ -7551,19 +7552,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D153" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="C153" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D153" s="21" t="s">
-        <v>402</v>
-      </c>
       <c r="E153" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F153" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G153" s="21" t="s">
         <v>16</v>
@@ -7575,19 +7576,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D154" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="C154" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D154" s="21" t="s">
-        <v>404</v>
-      </c>
       <c r="E154" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G154" s="21" t="s">
         <v>16</v>
@@ -7599,19 +7600,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D155" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="C155" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D155" s="21" t="s">
-        <v>406</v>
-      </c>
       <c r="E155" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F155" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G155" s="21" t="s">
         <v>16</v>
@@ -7623,19 +7624,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D156" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="C156" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>408</v>
-      </c>
       <c r="E156" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F156" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G156" s="21" t="s">
         <v>16</v>
@@ -7647,19 +7648,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D157" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="C157" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D157" s="21" t="s">
-        <v>410</v>
-      </c>
       <c r="E157" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F157" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G157" s="21" t="s">
         <v>16</v>
@@ -7671,19 +7672,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D158" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="C158" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D158" s="21" t="s">
-        <v>412</v>
-      </c>
       <c r="E158" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G158" s="21" t="s">
         <v>16</v>
@@ -7695,19 +7696,19 @@
         <v>158</v>
       </c>
       <c r="B159" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D159" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="C159" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D159" s="21" t="s">
-        <v>414</v>
-      </c>
       <c r="E159" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F159" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G159" s="21" t="s">
         <v>16</v>
@@ -7719,19 +7720,19 @@
         <v>159</v>
       </c>
       <c r="B160" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D160" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="C160" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D160" s="21" t="s">
-        <v>416</v>
-      </c>
       <c r="E160" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G160" s="21" t="s">
         <v>16</v>
@@ -7743,19 +7744,19 @@
         <v>160</v>
       </c>
       <c r="B161" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D161" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C161" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D161" s="21" t="s">
-        <v>418</v>
-      </c>
       <c r="E161" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F161" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G161" s="21" t="s">
         <v>16</v>
@@ -7767,19 +7768,19 @@
         <v>161</v>
       </c>
       <c r="B162" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D162" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="C162" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D162" s="21" t="s">
-        <v>420</v>
-      </c>
       <c r="E162" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F162" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G162" s="21" t="s">
         <v>16</v>
@@ -7791,19 +7792,19 @@
         <v>162</v>
       </c>
       <c r="B163" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D163" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="C163" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D163" s="21" t="s">
-        <v>422</v>
-      </c>
       <c r="E163" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G163" s="21" t="s">
         <v>16</v>
@@ -7815,19 +7816,19 @@
         <v>163</v>
       </c>
       <c r="B164" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D164" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C164" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="D164" s="21" t="s">
-        <v>424</v>
-      </c>
       <c r="E164" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F164" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G164" s="21" t="s">
         <v>16</v>
@@ -7839,19 +7840,19 @@
         <v>164</v>
       </c>
       <c r="B165" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="C165" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="D165" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="C165" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="D165" s="24" t="s">
-        <v>426</v>
-      </c>
       <c r="E165" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F165" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G165" s="24" t="s">
         <v>16</v>
@@ -7863,19 +7864,19 @@
         <v>165</v>
       </c>
       <c r="B166" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="C166" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="C166" s="24" t="s">
+      <c r="D166" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="D166" s="24" t="s">
-        <v>429</v>
-      </c>
       <c r="E166" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F166" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G166" s="24" t="s">
         <v>16</v>
@@ -7887,19 +7888,19 @@
         <v>166</v>
       </c>
       <c r="B167" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D167" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="C167" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D167" s="21" t="s">
-        <v>431</v>
-      </c>
       <c r="E167" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F167" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G167" s="21" t="s">
         <v>16</v>
@@ -7911,19 +7912,19 @@
         <v>167</v>
       </c>
       <c r="B168" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D168" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="C168" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D168" s="21" t="s">
-        <v>433</v>
-      </c>
       <c r="E168" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F168" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G168" s="21" t="s">
         <v>16</v>
@@ -7935,19 +7936,19 @@
         <v>168</v>
       </c>
       <c r="B169" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D169" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="C169" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D169" s="21" t="s">
-        <v>435</v>
-      </c>
       <c r="E169" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F169" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G169" s="21" t="s">
         <v>16</v>
@@ -7959,19 +7960,19 @@
         <v>169</v>
       </c>
       <c r="B170" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D170" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="C170" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D170" s="21" t="s">
-        <v>437</v>
-      </c>
       <c r="E170" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F170" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G170" s="21" t="s">
         <v>16</v>
@@ -7983,19 +7984,19 @@
         <v>170</v>
       </c>
       <c r="B171" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D171" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="C171" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D171" s="21" t="s">
-        <v>439</v>
-      </c>
       <c r="E171" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F171" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G171" s="21" t="s">
         <v>16</v>
@@ -8007,19 +8008,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D172" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="C172" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D172" s="21" t="s">
-        <v>441</v>
-      </c>
       <c r="E172" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F172" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G172" s="21" t="s">
         <v>16</v>
@@ -8031,19 +8032,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D173" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="C173" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D173" s="21" t="s">
-        <v>443</v>
-      </c>
       <c r="E173" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F173" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G173" s="21" t="s">
         <v>16</v>
@@ -8055,19 +8056,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D174" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="C174" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D174" s="21" t="s">
-        <v>445</v>
-      </c>
       <c r="E174" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F174" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G174" s="21" t="s">
         <v>16</v>
@@ -8079,19 +8080,19 @@
         <v>174</v>
       </c>
       <c r="B175" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D175" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="C175" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D175" s="21" t="s">
-        <v>447</v>
-      </c>
       <c r="E175" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F175" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G175" s="21" t="s">
         <v>16</v>
@@ -8103,19 +8104,19 @@
         <v>175</v>
       </c>
       <c r="B176" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D176" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="C176" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D176" s="21" t="s">
-        <v>449</v>
-      </c>
       <c r="E176" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F176" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G176" s="21" t="s">
         <v>16</v>
@@ -8127,19 +8128,19 @@
         <v>176</v>
       </c>
       <c r="B177" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D177" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="C177" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D177" s="21" t="s">
-        <v>451</v>
-      </c>
       <c r="E177" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F177" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G177" s="21" t="s">
         <v>16</v>
@@ -8151,19 +8152,19 @@
         <v>177</v>
       </c>
       <c r="B178" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="C178" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D178" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="C178" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D178" s="21" t="s">
-        <v>453</v>
-      </c>
       <c r="E178" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F178" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G178" s="21" t="s">
         <v>16</v>
@@ -8175,19 +8176,19 @@
         <v>178</v>
       </c>
       <c r="B179" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D179" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="C179" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D179" s="21" t="s">
-        <v>455</v>
-      </c>
       <c r="E179" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F179" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G179" s="21" t="s">
         <v>16</v>
@@ -8199,19 +8200,19 @@
         <v>179</v>
       </c>
       <c r="B180" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C180" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D180" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="C180" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D180" s="21" t="s">
-        <v>457</v>
-      </c>
       <c r="E180" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F180" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G180" s="21" t="s">
         <v>16</v>
@@ -8223,19 +8224,19 @@
         <v>180</v>
       </c>
       <c r="B181" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D181" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="C181" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D181" s="21" t="s">
-        <v>459</v>
-      </c>
       <c r="E181" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F181" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G181" s="21" t="s">
         <v>16</v>
@@ -8247,19 +8248,19 @@
         <v>181</v>
       </c>
       <c r="B182" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="C182" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D182" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="C182" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D182" s="21" t="s">
-        <v>461</v>
-      </c>
       <c r="E182" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F182" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G182" s="21" t="s">
         <v>16</v>
@@ -8271,19 +8272,19 @@
         <v>182</v>
       </c>
       <c r="B183" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D183" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="C183" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D183" s="21" t="s">
-        <v>463</v>
-      </c>
       <c r="E183" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F183" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G183" s="21" t="s">
         <v>16</v>
@@ -8295,19 +8296,19 @@
         <v>183</v>
       </c>
       <c r="B184" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D184" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="C184" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D184" s="21" t="s">
-        <v>465</v>
-      </c>
       <c r="E184" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F184" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G184" s="21" t="s">
         <v>16</v>
@@ -8319,19 +8320,19 @@
         <v>184</v>
       </c>
       <c r="B185" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D185" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="C185" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="D185" s="21" t="s">
-        <v>467</v>
-      </c>
       <c r="E185" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F185" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G185" s="21" t="s">
         <v>16</v>
@@ -8343,19 +8344,19 @@
         <v>185</v>
       </c>
       <c r="B186" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="C186" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="D186" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="C186" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="D186" s="24" t="s">
-        <v>469</v>
-      </c>
       <c r="E186" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F186" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G186" s="24" t="s">
         <v>16</v>
@@ -8367,19 +8368,19 @@
         <v>186</v>
       </c>
       <c r="B187" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="C187" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="C187" s="21" t="s">
+      <c r="D187" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="D187" s="21" t="s">
-        <v>472</v>
-      </c>
       <c r="E187" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F187" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G187" s="21" t="s">
         <v>16</v>
@@ -8391,19 +8392,19 @@
         <v>187</v>
       </c>
       <c r="B188" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="C188" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D188" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="C188" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D188" s="21" t="s">
-        <v>474</v>
-      </c>
       <c r="E188" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F188" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G188" s="21" t="s">
         <v>16</v>
@@ -8415,19 +8416,19 @@
         <v>188</v>
       </c>
       <c r="B189" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="C189" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D189" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="C189" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D189" s="21" t="s">
-        <v>476</v>
-      </c>
       <c r="E189" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F189" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G189" s="21" t="s">
         <v>16</v>
@@ -8439,19 +8440,19 @@
         <v>189</v>
       </c>
       <c r="B190" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="C190" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D190" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="C190" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D190" s="21" t="s">
-        <v>478</v>
-      </c>
       <c r="E190" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F190" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G190" s="21" t="s">
         <v>16</v>
@@ -8463,19 +8464,19 @@
         <v>190</v>
       </c>
       <c r="B191" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="C191" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D191" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="C191" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D191" s="21" t="s">
-        <v>480</v>
-      </c>
       <c r="E191" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F191" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G191" s="21" t="s">
         <v>16</v>
@@ -8487,19 +8488,19 @@
         <v>191</v>
       </c>
       <c r="B192" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="C192" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D192" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="C192" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D192" s="21" t="s">
-        <v>482</v>
-      </c>
       <c r="E192" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F192" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G192" s="21" t="s">
         <v>16</v>
@@ -8511,19 +8512,19 @@
         <v>192</v>
       </c>
       <c r="B193" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="C193" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D193" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="C193" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D193" s="21" t="s">
-        <v>484</v>
-      </c>
       <c r="E193" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F193" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G193" s="21" t="s">
         <v>16</v>
@@ -8535,19 +8536,19 @@
         <v>193</v>
       </c>
       <c r="B194" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="C194" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D194" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="C194" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D194" s="21" t="s">
-        <v>486</v>
-      </c>
       <c r="E194" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F194" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G194" s="21" t="s">
         <v>16</v>
@@ -8559,19 +8560,19 @@
         <v>194</v>
       </c>
       <c r="B195" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="C195" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D195" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="C195" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D195" s="21" t="s">
-        <v>488</v>
-      </c>
       <c r="E195" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F195" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G195" s="21" t="s">
         <v>16</v>
@@ -8583,19 +8584,19 @@
         <v>195</v>
       </c>
       <c r="B196" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="C196" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D196" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="C196" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D196" s="21" t="s">
-        <v>490</v>
-      </c>
       <c r="E196" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F196" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G196" s="21" t="s">
         <v>16</v>
@@ -8607,19 +8608,19 @@
         <v>196</v>
       </c>
       <c r="B197" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="C197" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D197" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="C197" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D197" s="21" t="s">
-        <v>492</v>
-      </c>
       <c r="E197" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F197" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G197" s="21" t="s">
         <v>16</v>
@@ -8631,19 +8632,19 @@
         <v>197</v>
       </c>
       <c r="B198" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="C198" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D198" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="C198" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D198" s="21" t="s">
-        <v>494</v>
-      </c>
       <c r="E198" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F198" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G198" s="21" t="s">
         <v>16</v>
@@ -8655,19 +8656,19 @@
         <v>198</v>
       </c>
       <c r="B199" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="C199" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D199" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="C199" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D199" s="21" t="s">
-        <v>496</v>
-      </c>
       <c r="E199" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F199" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G199" s="21" t="s">
         <v>16</v>
@@ -8679,19 +8680,19 @@
         <v>199</v>
       </c>
       <c r="B200" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="C200" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D200" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="C200" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D200" s="21" t="s">
-        <v>498</v>
-      </c>
       <c r="E200" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F200" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G200" s="21" t="s">
         <v>16</v>
@@ -8703,19 +8704,19 @@
         <v>200</v>
       </c>
       <c r="B201" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D201" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="C201" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D201" s="21" t="s">
-        <v>500</v>
-      </c>
       <c r="E201" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F201" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G201" s="21" t="s">
         <v>16</v>
@@ -8727,19 +8728,19 @@
         <v>201</v>
       </c>
       <c r="B202" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="C202" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D202" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="C202" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D202" s="21" t="s">
-        <v>502</v>
-      </c>
       <c r="E202" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F202" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G202" s="21" t="s">
         <v>16</v>
@@ -8751,19 +8752,19 @@
         <v>202</v>
       </c>
       <c r="B203" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="C203" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D203" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="C203" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D203" s="21" t="s">
-        <v>504</v>
-      </c>
       <c r="E203" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F203" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G203" s="21" t="s">
         <v>16</v>
@@ -8775,19 +8776,19 @@
         <v>203</v>
       </c>
       <c r="B204" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="C204" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D204" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="C204" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D204" s="21" t="s">
-        <v>506</v>
-      </c>
       <c r="E204" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F204" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G204" s="21" t="s">
         <v>16</v>
@@ -8799,19 +8800,19 @@
         <v>204</v>
       </c>
       <c r="B205" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="C205" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D205" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="C205" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D205" s="21" t="s">
-        <v>508</v>
-      </c>
       <c r="E205" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F205" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G205" s="21" t="s">
         <v>16</v>
@@ -8823,19 +8824,19 @@
         <v>205</v>
       </c>
       <c r="B206" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="C206" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="D206" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="C206" s="24" t="s">
-        <v>471</v>
-      </c>
-      <c r="D206" s="24" t="s">
-        <v>510</v>
-      </c>
       <c r="E206" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F206" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G206" s="24" t="s">
         <v>16</v>
@@ -8847,19 +8848,19 @@
         <v>206</v>
       </c>
       <c r="B207" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="C207" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="C207" s="24" t="s">
+      <c r="D207" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="D207" s="24" t="s">
-        <v>513</v>
-      </c>
       <c r="E207" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F207" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G207" s="24" t="s">
         <v>16</v>
@@ -8871,19 +8872,19 @@
         <v>207</v>
       </c>
       <c r="B208" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="C208" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D208" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="C208" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D208" s="21" t="s">
-        <v>515</v>
-      </c>
       <c r="E208" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F208" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G208" s="21" t="s">
         <v>16</v>
@@ -8895,19 +8896,19 @@
         <v>208</v>
       </c>
       <c r="B209" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="C209" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D209" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="C209" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D209" s="21" t="s">
-        <v>517</v>
-      </c>
       <c r="E209" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F209" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G209" s="21" t="s">
         <v>16</v>
@@ -8919,19 +8920,19 @@
         <v>209</v>
       </c>
       <c r="B210" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="C210" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D210" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="C210" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D210" s="21" t="s">
-        <v>519</v>
-      </c>
       <c r="E210" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F210" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G210" s="21" t="s">
         <v>16</v>
@@ -8943,19 +8944,19 @@
         <v>210</v>
       </c>
       <c r="B211" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="C211" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D211" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="C211" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D211" s="21" t="s">
-        <v>521</v>
-      </c>
       <c r="E211" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F211" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G211" s="21" t="s">
         <v>16</v>
@@ -8967,19 +8968,19 @@
         <v>211</v>
       </c>
       <c r="B212" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="C212" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D212" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="C212" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D212" s="21" t="s">
-        <v>523</v>
-      </c>
       <c r="E212" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F212" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G212" s="21" t="s">
         <v>16</v>
@@ -8991,19 +8992,19 @@
         <v>212</v>
       </c>
       <c r="B213" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="C213" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D213" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="C213" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D213" s="21" t="s">
-        <v>525</v>
-      </c>
       <c r="E213" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F213" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G213" s="21" t="s">
         <v>16</v>
@@ -9015,19 +9016,19 @@
         <v>213</v>
       </c>
       <c r="B214" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="C214" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D214" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="C214" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D214" s="21" t="s">
-        <v>527</v>
-      </c>
       <c r="E214" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F214" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G214" s="21" t="s">
         <v>16</v>
@@ -9039,19 +9040,19 @@
         <v>214</v>
       </c>
       <c r="B215" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="C215" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D215" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="C215" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D215" s="21" t="s">
-        <v>529</v>
-      </c>
       <c r="E215" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F215" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G215" s="21" t="s">
         <v>16</v>
@@ -9063,19 +9064,19 @@
         <v>215</v>
       </c>
       <c r="B216" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C216" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D216" s="21" t="s">
         <v>530</v>
       </c>
-      <c r="C216" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D216" s="21" t="s">
-        <v>531</v>
-      </c>
       <c r="E216" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F216" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G216" s="21" t="s">
         <v>16</v>
@@ -9087,19 +9088,19 @@
         <v>216</v>
       </c>
       <c r="B217" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C217" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D217" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="C217" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D217" s="21" t="s">
-        <v>533</v>
-      </c>
       <c r="E217" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F217" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G217" s="21" t="s">
         <v>16</v>
@@ -9111,19 +9112,19 @@
         <v>217</v>
       </c>
       <c r="B218" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="C218" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D218" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="C218" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D218" s="21" t="s">
-        <v>535</v>
-      </c>
       <c r="E218" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F218" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G218" s="21" t="s">
         <v>16</v>
@@ -9135,19 +9136,19 @@
         <v>218</v>
       </c>
       <c r="B219" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C219" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D219" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="C219" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D219" s="21" t="s">
-        <v>537</v>
-      </c>
       <c r="E219" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F219" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G219" s="21" t="s">
         <v>16</v>
@@ -9159,19 +9160,19 @@
         <v>219</v>
       </c>
       <c r="B220" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="C220" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D220" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C220" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D220" s="21" t="s">
-        <v>539</v>
-      </c>
       <c r="E220" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F220" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G220" s="21" t="s">
         <v>16</v>
@@ -9183,19 +9184,19 @@
         <v>220</v>
       </c>
       <c r="B221" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="C221" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D221" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C221" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D221" s="21" t="s">
-        <v>541</v>
-      </c>
       <c r="E221" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F221" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G221" s="21" t="s">
         <v>16</v>
@@ -9207,19 +9208,19 @@
         <v>221</v>
       </c>
       <c r="B222" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="C222" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D222" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="C222" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D222" s="21" t="s">
-        <v>543</v>
-      </c>
       <c r="E222" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F222" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G222" s="21" t="s">
         <v>16</v>
@@ -9231,19 +9232,19 @@
         <v>222</v>
       </c>
       <c r="B223" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="C223" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D223" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="C223" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D223" s="21" t="s">
-        <v>545</v>
-      </c>
       <c r="E223" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F223" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G223" s="21" t="s">
         <v>16</v>
@@ -9255,19 +9256,19 @@
         <v>223</v>
       </c>
       <c r="B224" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="C224" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D224" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="C224" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D224" s="21" t="s">
-        <v>547</v>
-      </c>
       <c r="E224" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F224" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G224" s="21" t="s">
         <v>16</v>
@@ -9279,19 +9280,19 @@
         <v>224</v>
       </c>
       <c r="B225" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="C225" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D225" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="C225" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D225" s="21" t="s">
-        <v>549</v>
-      </c>
       <c r="E225" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F225" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G225" s="21" t="s">
         <v>16</v>
@@ -9303,19 +9304,19 @@
         <v>225</v>
       </c>
       <c r="B226" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="C226" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D226" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="C226" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D226" s="21" t="s">
-        <v>551</v>
-      </c>
       <c r="E226" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F226" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G226" s="21" t="s">
         <v>16</v>
@@ -9327,19 +9328,19 @@
         <v>226</v>
       </c>
       <c r="B227" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="C227" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="D227" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="C227" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="D227" s="24" t="s">
-        <v>553</v>
-      </c>
       <c r="E227" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F227" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G227" s="24" t="s">
         <v>16</v>
@@ -9351,19 +9352,19 @@
         <v>227</v>
       </c>
       <c r="B228" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="C228" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="C228" s="21" t="s">
+      <c r="D228" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="D228" s="21" t="s">
-        <v>556</v>
-      </c>
       <c r="E228" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F228" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G228" s="21" t="s">
         <v>16</v>
@@ -9375,19 +9376,19 @@
         <v>228</v>
       </c>
       <c r="B229" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C229" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D229" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="C229" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D229" s="21" t="s">
-        <v>558</v>
-      </c>
       <c r="E229" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F229" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G229" s="21" t="s">
         <v>16</v>
@@ -9399,19 +9400,19 @@
         <v>229</v>
       </c>
       <c r="B230" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="C230" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D230" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="C230" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D230" s="21" t="s">
-        <v>560</v>
-      </c>
       <c r="E230" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F230" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G230" s="21" t="s">
         <v>16</v>
@@ -9423,19 +9424,19 @@
         <v>230</v>
       </c>
       <c r="B231" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="C231" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D231" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="C231" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D231" s="21" t="s">
-        <v>562</v>
-      </c>
       <c r="E231" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F231" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G231" s="21" t="s">
         <v>16</v>
@@ -9447,19 +9448,19 @@
         <v>231</v>
       </c>
       <c r="B232" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="C232" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D232" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="C232" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D232" s="21" t="s">
-        <v>564</v>
-      </c>
       <c r="E232" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F232" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G232" s="21" t="s">
         <v>16</v>
@@ -9471,19 +9472,19 @@
         <v>232</v>
       </c>
       <c r="B233" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="C233" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D233" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="C233" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D233" s="21" t="s">
-        <v>566</v>
-      </c>
       <c r="E233" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F233" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G233" s="21" t="s">
         <v>16</v>
@@ -9495,19 +9496,19 @@
         <v>233</v>
       </c>
       <c r="B234" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="C234" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D234" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="C234" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D234" s="21" t="s">
-        <v>568</v>
-      </c>
       <c r="E234" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F234" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G234" s="21" t="s">
         <v>16</v>
@@ -9519,19 +9520,19 @@
         <v>234</v>
       </c>
       <c r="B235" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="C235" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D235" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="C235" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D235" s="21" t="s">
-        <v>570</v>
-      </c>
       <c r="E235" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F235" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G235" s="21" t="s">
         <v>16</v>
@@ -9543,19 +9544,19 @@
         <v>235</v>
       </c>
       <c r="B236" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="C236" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D236" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="C236" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D236" s="21" t="s">
-        <v>572</v>
-      </c>
       <c r="E236" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F236" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G236" s="21" t="s">
         <v>16</v>
@@ -9567,19 +9568,19 @@
         <v>236</v>
       </c>
       <c r="B237" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="C237" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D237" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="C237" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D237" s="21" t="s">
-        <v>574</v>
-      </c>
       <c r="E237" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F237" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G237" s="21" t="s">
         <v>16</v>
@@ -9591,19 +9592,19 @@
         <v>237</v>
       </c>
       <c r="B238" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="C238" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D238" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="C238" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D238" s="21" t="s">
-        <v>576</v>
-      </c>
       <c r="E238" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F238" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G238" s="21" t="s">
         <v>16</v>
@@ -9615,19 +9616,19 @@
         <v>238</v>
       </c>
       <c r="B239" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="C239" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D239" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="C239" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D239" s="21" t="s">
-        <v>578</v>
-      </c>
       <c r="E239" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F239" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G239" s="21" t="s">
         <v>16</v>
@@ -9639,19 +9640,19 @@
         <v>239</v>
       </c>
       <c r="B240" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="C240" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D240" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="C240" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D240" s="21" t="s">
-        <v>580</v>
-      </c>
       <c r="E240" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F240" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G240" s="21" t="s">
         <v>16</v>
@@ -9663,19 +9664,19 @@
         <v>240</v>
       </c>
       <c r="B241" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="C241" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D241" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="C241" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D241" s="21" t="s">
-        <v>582</v>
-      </c>
       <c r="E241" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F241" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G241" s="21" t="s">
         <v>16</v>
@@ -9687,19 +9688,19 @@
         <v>241</v>
       </c>
       <c r="B242" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="C242" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D242" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="C242" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D242" s="21" t="s">
-        <v>584</v>
-      </c>
       <c r="E242" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F242" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G242" s="21" t="s">
         <v>16</v>
@@ -9711,19 +9712,19 @@
         <v>242</v>
       </c>
       <c r="B243" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="C243" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D243" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="C243" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D243" s="21" t="s">
-        <v>586</v>
-      </c>
       <c r="E243" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F243" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G243" s="21" t="s">
         <v>16</v>
@@ -9735,19 +9736,19 @@
         <v>243</v>
       </c>
       <c r="B244" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="C244" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D244" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="C244" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D244" s="21" t="s">
-        <v>588</v>
-      </c>
       <c r="E244" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F244" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G244" s="21" t="s">
         <v>16</v>
@@ -9759,19 +9760,19 @@
         <v>244</v>
       </c>
       <c r="B245" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="C245" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D245" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="C245" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D245" s="21" t="s">
-        <v>590</v>
-      </c>
       <c r="E245" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F245" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G245" s="21" t="s">
         <v>16</v>
@@ -9783,19 +9784,19 @@
         <v>245</v>
       </c>
       <c r="B246" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="C246" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D246" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="C246" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D246" s="21" t="s">
-        <v>592</v>
-      </c>
       <c r="E246" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F246" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G246" s="21" t="s">
         <v>16</v>
@@ -9807,19 +9808,19 @@
         <v>246</v>
       </c>
       <c r="B247" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="C247" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="D247" s="24" t="s">
         <v>593</v>
       </c>
-      <c r="C247" s="24" t="s">
-        <v>555</v>
-      </c>
-      <c r="D247" s="24" t="s">
-        <v>594</v>
-      </c>
       <c r="E247" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F247" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G247" s="24" t="s">
         <v>16</v>
@@ -9861,10 +9862,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -9872,332 +9873,332 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B4" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="6" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="6" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="6" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="6" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="6" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="6" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="6" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="6" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="6" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="6" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="6" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="6" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="6" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="6" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="6" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="6" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="6" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="6" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="6" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="6" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="6" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="6" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="6" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="6" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="6" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="6" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="6" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="6" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="6" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="6" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="6" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="6" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="6" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="6" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="6" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="6" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="6" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="6" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="6" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="6" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="6" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="6" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="6" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="6" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="6" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="6" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="6" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="6" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="6" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="6" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="6" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="6" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="6" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="6" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="6" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="6" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="6" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="6" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="6" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="6" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="6" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="6" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="6" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="6" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="6" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="6" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="6" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="6" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="6" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="6" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="6" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="6" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="6" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="6" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="34"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="6" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="6" t="s">
-        <v>635</v>
-      </c>
-    </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
-      <c r="B45" s="36" t="s">
+      <c r="A45" s="34"/>
+      <c r="B45" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="32"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="35" t="s">
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="32"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="32"/>
-      <c r="B49" s="36" t="s">
+      <c r="A49" s="34"/>
+      <c r="B49" s="33" t="s">
         <v>39</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -10205,8 +10206,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="6" t="s">
         <v>44</v>
       </c>
@@ -10248,7 +10249,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -10257,7 +10258,7 @@
       <c r="F1" s="44"/>
       <c r="G1" s="42"/>
       <c r="H1" s="42" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I1" s="43"/>
       <c r="J1" s="43"/>
@@ -10265,7 +10266,7 @@
       <c r="L1" s="44"/>
       <c r="M1" s="42"/>
       <c r="N1" s="42" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O1" s="43"/>
       <c r="P1" s="43"/>
@@ -10275,58 +10276,58 @@
     </row>
     <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>639</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="C2" s="29" t="s">
         <v>640</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="29" t="s">
         <v>641</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="29" t="s">
         <v>643</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>644</v>
-      </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>640</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="J2" s="29" t="s">
         <v>641</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="K2" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>643</v>
       </c>
-      <c r="L2" s="29" t="s">
-        <v>644</v>
-      </c>
-      <c r="M2" s="32"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="O2" s="29" t="s">
         <v>640</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="P2" s="29" t="s">
         <v>641</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="R2" s="29" t="s">
         <v>643</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>644</v>
       </c>
       <c r="S2" s="41"/>
       <c r="T2" s="29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -10351,7 +10352,7 @@
         <f t="shared" ref="F3:F23" si="2">E3/A3</f>
         <v>2160</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="7">
         <v>1920</v>
       </c>
@@ -10370,7 +10371,7 @@
         <f t="shared" ref="L3:L23" si="5">K3/A3</f>
         <v>1080</v>
       </c>
-      <c r="M3" s="32"/>
+      <c r="M3" s="34"/>
       <c r="N3" s="7">
         <v>1280</v>
       </c>
@@ -10416,7 +10417,7 @@
         <f t="shared" si="2"/>
         <v>1963.6363636363635</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="7">
         <v>1920</v>
       </c>
@@ -10435,7 +10436,7 @@
         <f t="shared" si="5"/>
         <v>981.81818181818176</v>
       </c>
-      <c r="M4" s="32"/>
+      <c r="M4" s="34"/>
       <c r="N4" s="7">
         <v>1280</v>
       </c>
@@ -10481,7 +10482,7 @@
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="G5" s="32"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="7">
         <v>1920</v>
       </c>
@@ -10500,7 +10501,7 @@
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="M5" s="32"/>
+      <c r="M5" s="34"/>
       <c r="N5" s="7">
         <v>1280</v>
       </c>
@@ -10546,7 +10547,7 @@
         <f t="shared" si="2"/>
         <v>1661.5384615384614</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="7">
         <v>1920</v>
       </c>
@@ -10565,7 +10566,7 @@
         <f t="shared" si="5"/>
         <v>830.76923076923072</v>
       </c>
-      <c r="M6" s="32"/>
+      <c r="M6" s="34"/>
       <c r="N6" s="7">
         <v>1280</v>
       </c>
@@ -10611,7 +10612,7 @@
         <f t="shared" si="2"/>
         <v>1542.8571428571429</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="7">
         <v>1920</v>
       </c>
@@ -10630,7 +10631,7 @@
         <f t="shared" si="5"/>
         <v>771.42857142857144</v>
       </c>
-      <c r="M7" s="32"/>
+      <c r="M7" s="34"/>
       <c r="N7" s="7">
         <v>1280</v>
       </c>
@@ -10676,7 +10677,7 @@
         <f t="shared" si="2"/>
         <v>1440</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="7">
         <v>1920</v>
       </c>
@@ -10695,7 +10696,7 @@
         <f t="shared" si="5"/>
         <v>720</v>
       </c>
-      <c r="M8" s="32"/>
+      <c r="M8" s="34"/>
       <c r="N8" s="7">
         <v>1280</v>
       </c>
@@ -10741,7 +10742,7 @@
         <f t="shared" si="2"/>
         <v>1350</v>
       </c>
-      <c r="G9" s="32"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="7">
         <v>1920</v>
       </c>
@@ -10760,7 +10761,7 @@
         <f t="shared" si="5"/>
         <v>675</v>
       </c>
-      <c r="M9" s="32"/>
+      <c r="M9" s="34"/>
       <c r="N9" s="7">
         <v>1280</v>
       </c>
@@ -10806,7 +10807,7 @@
         <f t="shared" si="2"/>
         <v>1270.5882352941176</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="7">
         <v>1920</v>
       </c>
@@ -10825,7 +10826,7 @@
         <f t="shared" si="5"/>
         <v>635.29411764705878</v>
       </c>
-      <c r="M10" s="32"/>
+      <c r="M10" s="34"/>
       <c r="N10" s="7">
         <v>1280</v>
       </c>
@@ -10871,7 +10872,7 @@
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="7">
         <v>1920</v>
       </c>
@@ -10890,7 +10891,7 @@
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="M11" s="32"/>
+      <c r="M11" s="34"/>
       <c r="N11" s="7">
         <v>1280</v>
       </c>
@@ -10936,7 +10937,7 @@
         <f t="shared" si="2"/>
         <v>1136.8421052631579</v>
       </c>
-      <c r="G12" s="32"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="7">
         <v>1920</v>
       </c>
@@ -10955,7 +10956,7 @@
         <f t="shared" si="5"/>
         <v>568.42105263157896</v>
       </c>
-      <c r="M12" s="32"/>
+      <c r="M12" s="34"/>
       <c r="N12" s="7">
         <v>1280</v>
       </c>
@@ -11001,7 +11002,7 @@
         <f t="shared" si="2"/>
         <v>1080</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="7">
         <v>1920</v>
       </c>
@@ -11020,7 +11021,7 @@
         <f t="shared" si="5"/>
         <v>540</v>
       </c>
-      <c r="M13" s="32"/>
+      <c r="M13" s="34"/>
       <c r="N13" s="7">
         <v>1280</v>
       </c>
@@ -11066,7 +11067,7 @@
         <f t="shared" si="2"/>
         <v>1028.5714285714284</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="7">
         <v>1920</v>
       </c>
@@ -11085,7 +11086,7 @@
         <f t="shared" si="5"/>
         <v>514.28571428571422</v>
       </c>
-      <c r="M14" s="32"/>
+      <c r="M14" s="34"/>
       <c r="N14" s="7">
         <v>1280</v>
       </c>
@@ -11131,7 +11132,7 @@
         <f t="shared" si="2"/>
         <v>981.81818181818176</v>
       </c>
-      <c r="G15" s="32"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="7">
         <v>1920</v>
       </c>
@@ -11150,7 +11151,7 @@
         <f t="shared" si="5"/>
         <v>490.90909090909088</v>
       </c>
-      <c r="M15" s="32"/>
+      <c r="M15" s="34"/>
       <c r="N15" s="7">
         <v>1280</v>
       </c>
@@ -11196,7 +11197,7 @@
         <f t="shared" si="2"/>
         <v>939.13043478260875</v>
       </c>
-      <c r="G16" s="32"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="7">
         <v>1920</v>
       </c>
@@ -11215,7 +11216,7 @@
         <f t="shared" si="5"/>
         <v>469.56521739130437</v>
       </c>
-      <c r="M16" s="32"/>
+      <c r="M16" s="34"/>
       <c r="N16" s="7">
         <v>1280</v>
       </c>
@@ -11261,7 +11262,7 @@
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="G17" s="32"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="7">
         <v>1920</v>
       </c>
@@ -11280,7 +11281,7 @@
         <f t="shared" si="5"/>
         <v>450</v>
       </c>
-      <c r="M17" s="32"/>
+      <c r="M17" s="34"/>
       <c r="N17" s="7">
         <v>1280</v>
       </c>
@@ -11326,7 +11327,7 @@
         <f t="shared" si="2"/>
         <v>864</v>
       </c>
-      <c r="G18" s="32"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="7">
         <v>1920</v>
       </c>
@@ -11345,7 +11346,7 @@
         <f t="shared" si="5"/>
         <v>432</v>
       </c>
-      <c r="M18" s="32"/>
+      <c r="M18" s="34"/>
       <c r="N18" s="7">
         <v>1280</v>
       </c>
@@ -11391,7 +11392,7 @@
         <f t="shared" si="2"/>
         <v>830.76923076923072</v>
       </c>
-      <c r="G19" s="32"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="7">
         <v>1920</v>
       </c>
@@ -11410,7 +11411,7 @@
         <f t="shared" si="5"/>
         <v>415.38461538461536</v>
       </c>
-      <c r="M19" s="32"/>
+      <c r="M19" s="34"/>
       <c r="N19" s="7">
         <v>1280</v>
       </c>
@@ -11456,7 +11457,7 @@
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="G20" s="32"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="7">
         <v>1920</v>
       </c>
@@ -11475,7 +11476,7 @@
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
-      <c r="M20" s="32"/>
+      <c r="M20" s="34"/>
       <c r="N20" s="7">
         <v>1280</v>
       </c>
@@ -11521,7 +11522,7 @@
         <f t="shared" si="2"/>
         <v>771.42857142857144</v>
       </c>
-      <c r="G21" s="32"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="7">
         <v>1920</v>
       </c>
@@ -11540,7 +11541,7 @@
         <f t="shared" si="5"/>
         <v>385.71428571428572</v>
       </c>
-      <c r="M21" s="32"/>
+      <c r="M21" s="34"/>
       <c r="N21" s="7">
         <v>1280</v>
       </c>
@@ -11586,7 +11587,7 @@
         <f t="shared" si="2"/>
         <v>744.82758620689663</v>
       </c>
-      <c r="G22" s="32"/>
+      <c r="G22" s="34"/>
       <c r="H22" s="7">
         <v>1920</v>
       </c>
@@ -11605,7 +11606,7 @@
         <f t="shared" si="5"/>
         <v>372.41379310344831</v>
       </c>
-      <c r="M22" s="32"/>
+      <c r="M22" s="34"/>
       <c r="N22" s="7">
         <v>1280</v>
       </c>
@@ -11651,7 +11652,7 @@
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="G23" s="33"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="7">
         <v>1920</v>
       </c>
@@ -11670,7 +11671,7 @@
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="M23" s="33"/>
+      <c r="M23" s="32"/>
       <c r="N23" s="7">
         <v>1280</v>
       </c>
@@ -11730,70 +11731,70 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>649</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>651</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>652</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>654</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>657</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>658</v>
-      </c>
       <c r="D3" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>654</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="C4" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>662</v>
-      </c>
       <c r="E4" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/twoDproject/digitalZoom/doc/数码变焦测试用例V2.1.xlsx
+++ b/twoDproject/digitalZoom/doc/数码变焦测试用例V2.1.xlsx
@@ -2591,7 +2591,7 @@
       </c>
       <c r="G2" s="24" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>当前Case运行出现异常，需要Check</t>
         </is>
       </c>
       <c r="H2" s="24" t="n"/>
